--- a/data/newrnet-chemistry/RI23_endmemeber_manual_sort.xlsx
+++ b/data/newrnet-chemistry/RI23_endmemeber_manual_sort.xlsx
@@ -13,6 +13,9 @@
     <sheet name="mar" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="apr" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">original!$B$1:$B$139</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -160,6 +163,36 @@
     <t xml:space="preserve">Data rubbed off of bottle, don't know type of lysimeter MED guessing SM</t>
   </si>
   <si>
+    <t xml:space="preserve">RI23-1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/09/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grab/Isco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to verify type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-03 MED switched SO4 and PO4 values because I think they are erroneous. Verified in Chromeleon I don't think SS knew the swap the peaks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RI23-1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RI23-1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">RI23-1004</t>
   </si>
   <si>
@@ -169,15 +202,6 @@
     <t xml:space="preserve">4:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Grab/Isco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need to verify type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-03 MED switched SO4 and PO4 values because I think they are erroneous. Verified in Chromeleon I don't think SS knew the swap the peaks.</t>
-  </si>
-  <si>
     <t xml:space="preserve">RI23-1005</t>
   </si>
   <si>
@@ -193,9 +217,6 @@
     <t xml:space="preserve">RI23-1007</t>
   </si>
   <si>
-    <t xml:space="preserve">16:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">RI23-1008</t>
   </si>
   <si>
@@ -373,24 +394,6 @@
     <t xml:space="preserve">ISO23-160</t>
   </si>
   <si>
-    <t xml:space="preserve">RI23-1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/09/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RI23-1002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RI23-1003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">RI23-5006</t>
   </si>
   <si>
@@ -580,6 +583,30 @@
     <t xml:space="preserve">RI23-1086</t>
   </si>
   <si>
+    <t xml:space="preserve">RI23-1087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RI23-1088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RI23-1089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RI23-1090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RI23-1091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/02/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RI23-1092</t>
+  </si>
+  <si>
     <t xml:space="preserve">RI23-5010</t>
   </si>
   <si>
@@ -607,21 +634,6 @@
     <t xml:space="preserve">RI23-1070</t>
   </si>
   <si>
-    <t xml:space="preserve">RI23-1087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/01/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RI23-1088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RI23-1089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RI23-1090</t>
-  </si>
-  <si>
     <t xml:space="preserve">RI23-1093</t>
   </si>
   <si>
@@ -737,15 +749,6 @@
   </si>
   <si>
     <t xml:space="preserve">RI23-1074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RI23-1091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/02/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RI23-1092</t>
   </si>
   <si>
     <t xml:space="preserve">RI23-1075</t>
@@ -933,15 +936,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AD139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B75" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C139" activeCellId="0" sqref="C139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1059,7 +1066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>30</v>
       </c>
@@ -1088,7 +1095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>36</v>
       </c>
@@ -1111,7 +1118,7 @@
         <v>-9.682</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>39</v>
       </c>
@@ -1134,7 +1141,7 @@
         <v>-11.481</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>41</v>
       </c>
@@ -1160,7 +1167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>45</v>
       </c>
@@ -1179,29 +1186,59 @@
       <c r="F6" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>0.07070274</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.065629733</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.000484385</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.03255743</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>3.058230455</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>2.587608353</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.034568565</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>8.758447425</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>19.9942659</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>-0.083201787</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>57.31774663</v>
+      </c>
       <c r="T6" s="0" t="n">
-        <v>19.93285684</v>
+        <v>36.24354745</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>12.13270472</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>1.608650899</v>
+        <v>13.79784939</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>19.33643425</v>
+        <v>50.59468528</v>
       </c>
       <c r="Z6" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>-72.393</v>
+        <v>-66.095</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>-10.536</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-9.827</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>51</v>
       </c>
@@ -1221,64 +1258,61 @@
         <v>49</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.05985216</v>
+        <v>0.06642303</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.036704559</v>
+        <v>0.068312251</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.000798254</v>
+        <v>-0.000212807</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>-0.005531601</v>
+        <v>0.02399678</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>2.127724577</v>
+        <v>3.025307521</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>3.346318279</v>
+        <v>2.42615384</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.089466635</v>
+        <v>0.028481244</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>6.439820672</v>
+        <v>8.901892075</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>15.18550491</v>
+        <v>21.65424121</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>-0.052922472</v>
+        <v>-0.085777963</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>43.3871675</v>
+        <v>64.01730457</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0.001115392</v>
+        <v>0.001488139</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>25.14337379</v>
+        <v>36.58841901</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>0.794758979</v>
+        <v>0.793567672</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>11.79256393</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>1.597841645</v>
+        <v>13.73243499</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>33.67334809</v>
+        <v>48.18684922</v>
       </c>
       <c r="Z7" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>-78.866</v>
+        <v>-66.847</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>-11.598</v>
+        <v>-9.862</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,7 +1320,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
@@ -1300,32 +1334,65 @@
       <c r="F8" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>0.082406714</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.052983714</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>-7.16263E-005</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>-0.007114412</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>2.817823734</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>2.326500989</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.030483384</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>8.663945967</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>20.47346407</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>-0.051498708</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>52.87541848</v>
+      </c>
       <c r="S8" s="0" t="n">
-        <v>0.137212689</v>
+        <v>0.039951549</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>1.901304161</v>
+        <v>34.27060158</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>0.793551784</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>2.633325453</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>1.593012871</v>
+        <v>12.65017776</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>6.720393662</v>
+        <v>45.78276962</v>
       </c>
       <c r="Z8" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>-80.253</v>
+        <v>-67.317</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>-12.024</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-9.8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>55</v>
       </c>
@@ -1333,10 +1400,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>48</v>
@@ -1344,76 +1411,37 @@
       <c r="F9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>0.082126397</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0.033194773</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0.002213523</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>-0.012900553</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>1.24524998</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>4.098671691</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0.071499685</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>3.620690446</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>10.15168174</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>-0.016383218</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>22.33848448</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>0.045780175</v>
-      </c>
       <c r="T9" s="0" t="n">
-        <v>16.50393641</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>0.794017159</v>
+        <v>19.93285684</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>11.88205455</v>
+        <v>12.13270472</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>1.60265606</v>
+        <v>1.608650899</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>16.17502768</v>
+        <v>19.33643425</v>
       </c>
       <c r="Z9" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>-80.652</v>
+        <v>-72.393</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>-11.977</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-10.536</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>59</v>
@@ -1425,61 +1453,67 @@
         <v>49</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.074341045</v>
+        <v>0.05985216</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.017434733</v>
+        <v>0.036704559</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.00111115</v>
+        <v>0.000798254</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>-0.011289398</v>
+        <v>-0.005531601</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>2.069521638</v>
+        <v>2.127724577</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>3.418112019</v>
+        <v>3.346318279</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.044272156</v>
+        <v>0.089466635</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>5.359727691</v>
+        <v>6.439820672</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>12.07524719</v>
+        <v>15.18550491</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>-0.036117375</v>
+        <v>-0.052922472</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>34.73109392</v>
+        <v>43.3871675</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0.219767087</v>
+        <v>0.001115392</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>19.9861589</v>
+        <v>25.14337379</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>0.794758979</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>17.57750099</v>
+        <v>11.79256393</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>1.597841645</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>27.1699378</v>
+        <v>33.67334809</v>
       </c>
       <c r="Z10" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>-75.973</v>
+        <v>-78.866</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>-11.294</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-11.598</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>60</v>
       </c>
@@ -1487,10 +1521,10 @@
         <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>48</v>
@@ -1498,70 +1532,43 @@
       <c r="F11" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>-0.000368339</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>-0.013919312</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0.000669407</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>0.087810647</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>1.348993671</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>0.06050381</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>-0.0430525</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>0.492410853</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>-0.692260425</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0.001906674</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>3.817650163</v>
+      <c r="S11" s="0" t="n">
+        <v>0.137212689</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>1.958206135</v>
+        <v>1.901304161</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>2.365147881</v>
+        <v>2.633325453</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>1.593012871</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>8.192964126</v>
+        <v>6.720393662</v>
       </c>
       <c r="Z11" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>-78.421</v>
+        <v>-80.253</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>-11.844</v>
+        <v>-12.024</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>48</v>
@@ -1570,69 +1577,78 @@
         <v>49</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.015831472</v>
+        <v>0.082126397</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>-0.000334966</v>
+        <v>0.033194773</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>-0.001383981</v>
+        <v>0.002213523</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.084259266</v>
+        <v>-0.012900553</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1.297124953</v>
+        <v>1.24524998</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.251027006</v>
+        <v>4.098671691</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>-0.016190683</v>
+        <v>0.071499685</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.484988789</v>
+        <v>3.620690446</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>-0.724194527</v>
+        <v>10.15168174</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>0.031647044</v>
+        <v>-0.016383218</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>3.482074529</v>
+        <v>22.33848448</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>0.045780175</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>1.969762242</v>
+        <v>16.50393641</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>0.794017159</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>2.337740572</v>
+        <v>11.88205455</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>1.60265606</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>8.039079548</v>
+        <v>16.17502768</v>
       </c>
       <c r="Z12" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>-78.932</v>
+        <v>-80.652</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>-11.876</v>
+        <v>-11.977</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>48</v>
@@ -1641,117 +1657,129 @@
         <v>49</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.015128181</v>
+        <v>0.074341045</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>-0.00022341</v>
+        <v>0.017434733</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>-0.001005024</v>
+        <v>0.00111115</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.06562293</v>
+        <v>-0.011289398</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>1.252658832</v>
+        <v>2.069521638</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.267325425</v>
+        <v>3.418112019</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>-0.018118794</v>
+        <v>0.044272156</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.44223053</v>
+        <v>5.359727691</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>-0.702899646</v>
+        <v>12.07524719</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>0.037399116</v>
+        <v>-0.036117375</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>3.287053757</v>
+        <v>34.73109392</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>0.219767087</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>1.928914173</v>
+        <v>19.9861589</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>2.370623019</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>1.60495193</v>
+        <v>17.57750099</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>7.654232692</v>
+        <v>27.1699378</v>
       </c>
       <c r="Z13" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>-79.978</v>
+        <v>-75.973</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>-12.027</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-11.294</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.016031573</v>
+        <v>-0.000368339</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.004307287</v>
+        <v>-0.013919312</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>-0.001298871</v>
+        <v>0.000669407</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.074909673</v>
+        <v>0.087810647</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>1.327972174</v>
+        <v>1.348993671</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.239991482</v>
+        <v>0.06050381</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>-0.02314997</v>
+        <v>-0.0430525</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.463008907</v>
+        <v>0.492410853</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>-0.73109936</v>
+        <v>-0.692260425</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>0.033283942</v>
+        <v>0.001906674</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>3.486294451</v>
+        <v>3.817650163</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>1.958206135</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>2.365147881</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>8.192964126</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>-78.111</v>
+        <v>-78.421</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>-11.784</v>
+        <v>-11.844</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,10 +1787,10 @@
         <v>69</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>70</v>
@@ -1773,254 +1801,230 @@
       <c r="F15" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="H15" s="0" t="n">
+        <v>0.015831472</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>-0.000334966</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>-0.001383981</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.084259266</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1.297124953</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.251027006</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>-0.016190683</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.484988789</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>-0.724194527</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.031647044</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>3.482074529</v>
+      </c>
       <c r="T15" s="0" t="n">
-        <v>36.0978</v>
+        <v>1.969762242</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>25.2192</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>1.6233</v>
+        <v>2.337740572</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>24.5824</v>
+        <v>8.039079548</v>
       </c>
       <c r="Z15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>-78.932</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>-11.876</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="AB15" s="0" t="n">
-        <v>-71.186</v>
-      </c>
-      <c r="AC15" s="0" t="n">
-        <v>-10.577</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>72</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.091445162</v>
+        <v>0.015128181</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.005409173</v>
+        <v>-0.00022341</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.00021518</v>
+        <v>-0.001005024</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.01622452</v>
+        <v>0.06562293</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.429856652</v>
+        <v>1.252658832</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.380634415</v>
+        <v>0.267325425</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>-0.03678504</v>
+        <v>-0.018118794</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.396151045</v>
+        <v>0.44223053</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>-1.016981079</v>
+        <v>-0.702899646</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>0.38854617</v>
+        <v>0.037399116</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>0.577446065</v>
+        <v>3.287053757</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>1.923457692</v>
+        <v>1.928914173</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>4.33844694</v>
+        <v>2.370623019</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>1.589903809</v>
+        <v>1.60495193</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <v>2.869524728</v>
+        <v>7.654232692</v>
       </c>
       <c r="Z16" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB16" s="0" t="n">
-        <v>-93.641</v>
+        <v>-79.978</v>
       </c>
       <c r="AC16" s="0" t="n">
-        <v>-13.233</v>
+        <v>-12.027</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.09529109</v>
+        <v>0.016031573</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>9.6409E-005</v>
+        <v>0.004307287</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>-0.000284104</v>
+        <v>-0.001298871</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>-0.003846345</v>
+        <v>0.074909673</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>1.878128524</v>
+        <v>1.327972174</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0.59333239</v>
+        <v>0.239991482</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>-0.016290333</v>
+        <v>-0.02314997</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.753155928</v>
+        <v>0.463008907</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.240985995</v>
+        <v>-0.73109936</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>0.23388279</v>
+        <v>0.033283942</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>3.508331025</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>3.04384406</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>9.087003229</v>
-      </c>
-      <c r="X17" s="0" t="n">
-        <v>1.603273102</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>6.460805047</v>
-      </c>
-      <c r="Z17" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.486294451</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>-78.111</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <v>-11.784</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0.000298482</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>-0.002068926</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0.000646314</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>0.004475379</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>6.780331804</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>0.394923806</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>0.042204473</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>4.262023065</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>2.591937815</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>-0.010027985</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>29.03969809</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>0.057106365</v>
+        <v>48</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>6.380104084</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>0.811890334</v>
+        <v>36.0978</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>4.96921924</v>
+        <v>25.2192</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>1.6233</v>
       </c>
       <c r="Y18" s="0" t="n">
-        <v>5.218622354</v>
+        <v>24.5824</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AB18" s="0" t="n">
-        <v>-90.225</v>
+        <v>-71.186</v>
       </c>
       <c r="AC18" s="0" t="n">
-        <v>-13.668</v>
-      </c>
-      <c r="AD18" s="0" t="s">
-        <v>81</v>
+        <v>-10.577</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,90 +2032,87 @@
         <v>78</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>79</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>80</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>-0.012308703</v>
+        <v>0.091445162</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>-0.002999804</v>
+        <v>0.005409173</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.000537012</v>
+        <v>0.00021518</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>-0.005347326</v>
+        <v>0.01622452</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>1.198587287</v>
+        <v>0.429856652</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>1.049475625</v>
+        <v>0.380634415</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.0024883</v>
+        <v>-0.03678504</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>2.011598779</v>
+        <v>0.396151045</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>11.69639596</v>
+        <v>-1.016981079</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>0.001544063</v>
+        <v>0.38854617</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>7.187665599</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>0.057106365</v>
+        <v>0.577446065</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>6.380104084</v>
-      </c>
-      <c r="U19" s="0" t="n">
-        <v>0.811890334</v>
+        <v>1.923457692</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>4.96921924</v>
+        <v>4.33844694</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>1.589903809</v>
       </c>
       <c r="Y19" s="0" t="n">
-        <v>5.218622354</v>
+        <v>2.869524728</v>
       </c>
       <c r="Z19" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB19" s="0" t="n">
-        <v>-90.225</v>
+        <v>-93.641</v>
       </c>
       <c r="AC19" s="0" t="n">
-        <v>-13.668</v>
-      </c>
-      <c r="AD19" s="0" t="s">
+        <v>-13.233</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>33</v>
@@ -2120,212 +2121,218 @@
         <v>34</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>-0.002137737</v>
+        <v>0.09529109</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>-0.017859021</v>
+        <v>9.6409E-005</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.002659136</v>
+        <v>-0.000284104</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>-0.007235935</v>
+        <v>-0.003846345</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>4.330232872</v>
+        <v>1.878128524</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>0.274426664</v>
+        <v>0.59333239</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.014075412</v>
+        <v>-0.016290333</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>3.549444341</v>
+        <v>0.753155928</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>1.993341772</v>
+        <v>0.240985995</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>-0.021851568</v>
+        <v>0.23388279</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>26.67682151</v>
+        <v>3.508331025</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>5.625607653</v>
+        <v>3.04384406</v>
       </c>
       <c r="W20" s="0" t="n">
-        <v>65.63708637</v>
+        <v>9.087003229</v>
       </c>
       <c r="X20" s="0" t="n">
-        <v>1.535731233</v>
+        <v>1.603273102</v>
       </c>
       <c r="Y20" s="0" t="n">
-        <v>17.22829595</v>
+        <v>6.460805047</v>
       </c>
       <c r="Z20" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AB20" s="0" t="n">
-        <v>-79.175</v>
-      </c>
-      <c r="AC20" s="0" t="n">
-        <v>-11.536</v>
-      </c>
-      <c r="AD20" s="0" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="H21" s="0" t="n">
-        <v>-0.023113687</v>
+        <v>0.000298482</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>-0.015549119</v>
+        <v>-0.002068926</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>-0.000157782</v>
+        <v>0.000646314</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0.00247053</v>
+        <v>0.004475379</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>-0.148588935</v>
+        <v>6.780331804</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>-0.030691816</v>
+        <v>0.394923806</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>-0.050474293</v>
+        <v>0.042204473</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.010751893</v>
+        <v>4.262023065</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>-1.13914081</v>
+        <v>2.591937815</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>-0.013698645</v>
+        <v>-0.010027985</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>0.111409852</v>
+        <v>29.03969809</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>0.057106365</v>
       </c>
       <c r="T21" s="0" t="n">
-        <v>1.7332</v>
+        <v>6.380104084</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>0.811890334</v>
       </c>
       <c r="W21" s="0" t="n">
-        <v>2.5428</v>
+        <v>4.96921924</v>
       </c>
       <c r="Y21" s="0" t="n">
-        <v>3.4481</v>
+        <v>5.218622354</v>
       </c>
       <c r="Z21" s="0" t="s">
         <v>50</v>
       </c>
+      <c r="AB21" s="0" t="n">
+        <v>-90.225</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>-13.668</v>
+      </c>
+      <c r="AD21" s="0" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>-0.007382155</v>
+        <v>-0.012308703</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.002961813</v>
+        <v>-0.002999804</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.000567562</v>
+        <v>0.000537012</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>-0.001676279</v>
+        <v>-0.005347326</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0.18544433</v>
+        <v>1.198587287</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>0.483999523</v>
+        <v>1.049475625</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>-0.016724087</v>
+        <v>0.0024883</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.210295175</v>
+        <v>2.011598779</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>-0.778613816</v>
+        <v>11.69639596</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>0.017610823</v>
+        <v>0.001544063</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>0.764609235</v>
+        <v>7.187665599</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>0.057106365</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>1.822968034</v>
+        <v>6.380104084</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>0.80210356</v>
+        <v>0.811890334</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>2.45898375</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <v>1.597084061</v>
+        <v>4.96921924</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>3.54367992</v>
+        <v>5.218622354</v>
       </c>
       <c r="Z22" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB22" s="0" t="n">
-        <v>-109.383</v>
+        <v>-90.225</v>
       </c>
       <c r="AC22" s="0" t="n">
-        <v>-15.682</v>
+        <v>-13.668</v>
       </c>
       <c r="AD22" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,82 +2340,82 @@
         <v>88</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>79</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>-0.007382155</v>
+        <v>-0.002137737</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.002961813</v>
+        <v>-0.017859021</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.000567562</v>
+        <v>0.002659136</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>-0.001676279</v>
+        <v>-0.007235935</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0.18544433</v>
+        <v>4.330232872</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>0.483999523</v>
+        <v>0.274426664</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>-0.016724087</v>
+        <v>0.014075412</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0.210295175</v>
+        <v>3.549444341</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>-0.778613816</v>
+        <v>1.993341772</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>0.017610823</v>
+        <v>-0.021851568</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>0.764609235</v>
+        <v>26.67682151</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>1.822968034</v>
-      </c>
-      <c r="U23" s="0" t="n">
-        <v>0.80210356</v>
+        <v>5.625607653</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>2.45898375</v>
+        <v>65.63708637</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>1.597084061</v>
+        <v>1.535731233</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>3.54367992</v>
+        <v>17.22829595</v>
       </c>
       <c r="Z23" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB23" s="0" t="n">
-        <v>-85.767</v>
+        <v>-79.175</v>
       </c>
       <c r="AC23" s="0" t="n">
-        <v>-12.292</v>
+        <v>-11.536</v>
       </c>
       <c r="AD23" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>91</v>
       </c>
@@ -2416,73 +2423,64 @@
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="G24" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="H24" s="0" t="n">
-        <v>0.009929402</v>
+        <v>-0.023113687</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>-0.005332153</v>
+        <v>-0.015549119</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>-0.000275806</v>
+        <v>-0.000157782</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>-0.008026478</v>
+        <v>0.00247053</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>1.009174369</v>
+        <v>-0.148588935</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>0.025900186</v>
+        <v>-0.030691816</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>-0.045117738</v>
+        <v>-0.050474293</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.366981591</v>
+        <v>0.010751893</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>-0.830649204</v>
+        <v>-1.13914081</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>0.017792738</v>
+        <v>-0.013698645</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>2.816430098</v>
+        <v>0.111409852</v>
       </c>
       <c r="T24" s="0" t="n">
-        <v>1.847234257</v>
+        <v>1.7332</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>2.335431894</v>
-      </c>
-      <c r="X24" s="0" t="n">
-        <v>1.596832912</v>
+        <v>2.5428</v>
       </c>
       <c r="Y24" s="0" t="n">
-        <v>7.121828352</v>
+        <v>3.4481</v>
       </c>
       <c r="Z24" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AB24" s="0" t="n">
-        <v>-81.829</v>
-      </c>
-      <c r="AC24" s="0" t="n">
-        <v>-12.071</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>94</v>
       </c>
@@ -2490,128 +2488,167 @@
         <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="S25" s="0" t="n">
-        <v>0.082762811</v>
+      <c r="H25" s="0" t="n">
+        <v>-0.007382155</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.002961813</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.000567562</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>-0.001676279</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0.18544433</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>0.483999523</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>-0.016724087</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0.210295175</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>-0.778613816</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>0.017610823</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>0.764609235</v>
       </c>
       <c r="T25" s="0" t="n">
-        <v>1.825491289</v>
+        <v>1.822968034</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>0.80210356</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>2.380357969</v>
+        <v>2.45898375</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>1.599586788</v>
+        <v>1.597084061</v>
       </c>
       <c r="Y25" s="0" t="n">
-        <v>6.799209333</v>
+        <v>3.54367992</v>
       </c>
       <c r="Z25" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB25" s="0" t="n">
-        <v>-83.418</v>
+        <v>-109.383</v>
       </c>
       <c r="AC25" s="0" t="n">
-        <v>-12.43</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-15.682</v>
+      </c>
+      <c r="AD25" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>49</v>
+        <v>85</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.006730345</v>
+        <v>-0.007382155</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>-0.013612768</v>
+        <v>0.002961813</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>-0.000215375</v>
+        <v>0.000567562</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>-0.007393023</v>
+        <v>-0.001676279</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0.987823986</v>
+        <v>0.18544433</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0.011488276</v>
+        <v>0.483999523</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>-0.045223492</v>
+        <v>-0.016724087</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.370514021</v>
+        <v>0.210295175</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>-0.814827157</v>
+        <v>-0.778613816</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>0.030815664</v>
+        <v>0.017610823</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>2.791172314</v>
+        <v>0.764609235</v>
       </c>
       <c r="T26" s="0" t="n">
-        <v>1.826587993</v>
-      </c>
-      <c r="V26" s="0" t="n">
-        <v>1.564433136</v>
+        <v>1.822968034</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>0.80210356</v>
       </c>
       <c r="W26" s="0" t="n">
-        <v>2.427248866</v>
+        <v>2.45898375</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>1.600097968</v>
+        <v>1.597084061</v>
       </c>
       <c r="Y26" s="0" t="n">
-        <v>6.946511437</v>
+        <v>3.54367992</v>
       </c>
       <c r="Z26" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB26" s="0" t="n">
-        <v>-82.863</v>
+        <v>-85.767</v>
       </c>
       <c r="AC26" s="0" t="n">
-        <v>-12.35</v>
+        <v>-12.292</v>
+      </c>
+      <c r="AD26" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>99</v>
@@ -2623,64 +2660,61 @@
         <v>49</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.090109524</v>
+        <v>0.009929402</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.009449742</v>
+        <v>-0.005332153</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.000991606</v>
+        <v>-0.000275806</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.026253344</v>
+        <v>-0.008026478</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>2.347823331</v>
+        <v>1.009174369</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>3.006947951</v>
+        <v>0.025900186</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.024201031</v>
+        <v>-0.045117738</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>5.451364482</v>
+        <v>0.366981591</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>11.16684538</v>
+        <v>-0.830649204</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>0.003050048</v>
+        <v>0.017792738</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>32.10081128</v>
-      </c>
-      <c r="S27" s="0" t="n">
-        <v>0.1184</v>
+        <v>2.816430098</v>
       </c>
       <c r="T27" s="0" t="n">
-        <v>23.8431</v>
-      </c>
-      <c r="U27" s="0" t="n">
-        <v>0.4163</v>
+        <v>1.847234257</v>
       </c>
       <c r="W27" s="0" t="n">
-        <v>15.7319</v>
+        <v>2.335431894</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>1.613</v>
+        <v>1.596832912</v>
       </c>
       <c r="Y27" s="0" t="n">
-        <v>17.4841</v>
+        <v>7.121828352</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="AB27" s="0" t="n">
-        <v>-74.385</v>
+        <v>-81.829</v>
       </c>
       <c r="AC27" s="0" t="n">
-        <v>-11.008</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-12.071</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>100</v>
       </c>
@@ -2688,10 +2722,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>48</v>
@@ -2699,70 +2733,43 @@
       <c r="F28" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="0" t="n">
-        <v>-0.009587806</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>-0.015518503</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>0.00014913</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>-0.009241594</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>0.111252842</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>0.027338712</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>-0.043340331</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>0.355761069</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>-0.843103148</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>-0.015583988</v>
-      </c>
-      <c r="R28" s="0" t="n">
-        <v>2.800026844</v>
+      <c r="S28" s="0" t="n">
+        <v>0.082762811</v>
       </c>
       <c r="T28" s="0" t="n">
-        <v>0.9358</v>
+        <v>1.825491289</v>
       </c>
       <c r="W28" s="0" t="n">
-        <v>2.0338</v>
+        <v>2.380357969</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>1.1228</v>
+        <v>1.599586788</v>
       </c>
       <c r="Y28" s="0" t="n">
-        <v>3.3116</v>
+        <v>6.799209333</v>
+      </c>
+      <c r="Z28" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="AB28" s="0" t="n">
-        <v>-82.344</v>
+        <v>-83.418</v>
       </c>
       <c r="AC28" s="0" t="n">
-        <v>-12.322</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-12.43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>48</v>
@@ -2771,69 +2778,75 @@
         <v>49</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>-0.009587806</v>
+        <v>0.006730345</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>-0.015518503</v>
+        <v>-0.013612768</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.00014913</v>
+        <v>-0.000215375</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>-0.009241594</v>
+        <v>-0.007393023</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0.111252842</v>
+        <v>0.987823986</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>0.027338712</v>
+        <v>0.011488276</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>-0.043340331</v>
+        <v>-0.045223492</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.355761069</v>
+        <v>0.370514021</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>-0.843103148</v>
+        <v>-0.814827157</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>-0.015583988</v>
+        <v>0.030815664</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>2.800026844</v>
+        <v>2.791172314</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>0.948</v>
-      </c>
-      <c r="U29" s="0" t="n">
-        <v>0.4168</v>
+        <v>1.826587993</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>1.564433136</v>
       </c>
       <c r="W29" s="0" t="n">
-        <v>2.0177</v>
+        <v>2.427248866</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>1.600097968</v>
       </c>
       <c r="Y29" s="0" t="n">
-        <v>3.3358</v>
+        <v>6.946511437</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="AB29" s="0" t="n">
-        <v>-82.344</v>
+        <v>-82.863</v>
       </c>
       <c r="AC29" s="0" t="n">
-        <v>-12.322</v>
+        <v>-12.35</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>48</v>
@@ -2842,69 +2855,75 @@
         <v>49</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.000784369</v>
+        <v>0.090109524</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>-0.000537032</v>
+        <v>0.009449742</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>-0.00133881</v>
+        <v>0.000991606</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>-0.004806816</v>
+        <v>0.026253344</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0.103439309</v>
+        <v>2.347823331</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>0.239877847</v>
+        <v>3.006947951</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>-0.023028727</v>
+        <v>0.024201031</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.36110916</v>
+        <v>5.451364482</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>-0.798507185</v>
+        <v>11.16684538</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>0.012107569</v>
+        <v>0.003050048</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>2.673882905</v>
+        <v>32.10081128</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>0.1184</v>
       </c>
       <c r="T30" s="0" t="n">
-        <v>0.9358</v>
+        <v>23.8431</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>0.4163</v>
       </c>
       <c r="W30" s="0" t="n">
-        <v>2.0338</v>
+        <v>15.7319</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>1.1228</v>
+        <v>1.613</v>
       </c>
       <c r="Y30" s="0" t="n">
-        <v>3.3116</v>
+        <v>17.4841</v>
       </c>
       <c r="AB30" s="0" t="n">
-        <v>-82.344</v>
+        <v>-74.385</v>
       </c>
       <c r="AC30" s="0" t="n">
-        <v>-12.322</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-11.008</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>48</v>
@@ -2913,49 +2932,49 @@
         <v>49</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.000784369</v>
+        <v>-0.009587806</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>-0.000537032</v>
+        <v>-0.015518503</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>-0.00133881</v>
+        <v>0.00014913</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>-0.004806816</v>
+        <v>-0.009241594</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0.103439309</v>
+        <v>0.111252842</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>0.239877847</v>
+        <v>0.027338712</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>-0.023028727</v>
+        <v>-0.043340331</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0.36110916</v>
+        <v>0.355761069</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>-0.798507185</v>
+        <v>-0.843103148</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>0.012107569</v>
+        <v>-0.015583988</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>2.673882905</v>
+        <v>2.800026844</v>
       </c>
       <c r="T31" s="0" t="n">
-        <v>0.948</v>
-      </c>
-      <c r="U31" s="0" t="n">
-        <v>0.4168</v>
+        <v>0.9358</v>
       </c>
       <c r="W31" s="0" t="n">
-        <v>2.0177</v>
+        <v>2.0338</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>1.1228</v>
       </c>
       <c r="Y31" s="0" t="n">
-        <v>3.3358</v>
+        <v>3.3116</v>
       </c>
       <c r="AB31" s="0" t="n">
         <v>-82.344</v>
@@ -2964,18 +2983,18 @@
         <v>-12.322</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>48</v>
@@ -3017,16 +3036,16 @@
         <v>2.800026844</v>
       </c>
       <c r="T32" s="0" t="n">
-        <v>0.9358</v>
+        <v>0.948</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>0.4168</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>2.0338</v>
-      </c>
-      <c r="X32" s="0" t="n">
-        <v>1.1228</v>
+        <v>2.0177</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>3.3116</v>
+        <v>3.3358</v>
       </c>
       <c r="AB32" s="0" t="n">
         <v>-82.344</v>
@@ -3035,18 +3054,18 @@
         <v>-12.322</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>48</v>
@@ -3055,49 +3074,49 @@
         <v>49</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>-0.009587806</v>
+        <v>0.000784369</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>-0.015518503</v>
+        <v>-0.000537032</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.00014913</v>
+        <v>-0.00133881</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>-0.009241594</v>
+        <v>-0.004806816</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0.111252842</v>
+        <v>0.103439309</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>0.027338712</v>
+        <v>0.239877847</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>-0.043340331</v>
+        <v>-0.023028727</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0.355761069</v>
+        <v>0.36110916</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>-0.843103148</v>
+        <v>-0.798507185</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>-0.015583988</v>
+        <v>0.012107569</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>2.800026844</v>
+        <v>2.673882905</v>
       </c>
       <c r="T33" s="0" t="n">
-        <v>0.948</v>
-      </c>
-      <c r="U33" s="0" t="n">
-        <v>0.4168</v>
+        <v>0.9358</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>2.0177</v>
+        <v>2.0338</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>1.1228</v>
       </c>
       <c r="Y33" s="0" t="n">
-        <v>3.3358</v>
+        <v>3.3116</v>
       </c>
       <c r="AB33" s="0" t="n">
         <v>-82.344</v>
@@ -3106,18 +3125,18 @@
         <v>-12.322</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>48</v>
@@ -3159,16 +3178,16 @@
         <v>2.673882905</v>
       </c>
       <c r="T34" s="0" t="n">
-        <v>0.9358</v>
+        <v>0.948</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.4168</v>
       </c>
       <c r="W34" s="0" t="n">
-        <v>2.0338</v>
-      </c>
-      <c r="X34" s="0" t="n">
-        <v>1.1228</v>
+        <v>2.0177</v>
       </c>
       <c r="Y34" s="0" t="n">
-        <v>3.3116</v>
+        <v>3.3358</v>
       </c>
       <c r="AB34" s="0" t="n">
         <v>-82.344</v>
@@ -3177,18 +3196,18 @@
         <v>-12.322</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>48</v>
@@ -3197,49 +3216,49 @@
         <v>49</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.000784369</v>
+        <v>-0.009587806</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>-0.000537032</v>
+        <v>-0.015518503</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>-0.00133881</v>
+        <v>0.00014913</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>-0.004806816</v>
+        <v>-0.009241594</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0.103439309</v>
+        <v>0.111252842</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>0.239877847</v>
+        <v>0.027338712</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>-0.023028727</v>
+        <v>-0.043340331</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.36110916</v>
+        <v>0.355761069</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>-0.798507185</v>
+        <v>-0.843103148</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>0.012107569</v>
+        <v>-0.015583988</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>2.673882905</v>
+        <v>2.800026844</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>0.948</v>
-      </c>
-      <c r="U35" s="0" t="n">
-        <v>0.4168</v>
+        <v>0.9358</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>2.0177</v>
+        <v>2.0338</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <v>1.1228</v>
       </c>
       <c r="Y35" s="0" t="n">
-        <v>3.3358</v>
+        <v>3.3116</v>
       </c>
       <c r="AB35" s="0" t="n">
         <v>-82.344</v>
@@ -3248,18 +3267,18 @@
         <v>-12.322</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>48</v>
@@ -3268,66 +3287,69 @@
         <v>49</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>-0.012384247</v>
+        <v>-0.009587806</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>-0.008662746</v>
+        <v>-0.015518503</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>-0.000313138</v>
+        <v>0.00014913</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>-0.011986366</v>
+        <v>-0.009241594</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0.227336303</v>
+        <v>0.111252842</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0.037369845</v>
+        <v>0.027338712</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>-0.049723206</v>
+        <v>-0.043340331</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0.354200029</v>
+        <v>0.355761069</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>-0.811686654</v>
+        <v>-0.843103148</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>-0.011236236</v>
+        <v>-0.015583988</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>2.688623583</v>
+        <v>2.800026844</v>
       </c>
       <c r="T36" s="0" t="n">
-        <v>0.939</v>
+        <v>0.948</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0.4168</v>
       </c>
       <c r="W36" s="0" t="n">
-        <v>1.6933</v>
+        <v>2.0177</v>
       </c>
       <c r="Y36" s="0" t="n">
-        <v>3.3321</v>
+        <v>3.3358</v>
       </c>
       <c r="AB36" s="0" t="n">
-        <v>-82.319</v>
+        <v>-82.344</v>
       </c>
       <c r="AC36" s="0" t="n">
-        <v>-12.33</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-12.322</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>48</v>
@@ -3336,55 +3358,58 @@
         <v>49</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.000791566</v>
+        <v>0.000784369</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.002196834</v>
+        <v>-0.000537032</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>-0.000602125</v>
+        <v>-0.00133881</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>-0.006399335</v>
+        <v>-0.004806816</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.20634927</v>
+        <v>0.103439309</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0.24821908</v>
+        <v>0.239877847</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>-0.015888774</v>
+        <v>-0.023028727</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.389891339</v>
+        <v>0.36110916</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>-0.750371788</v>
+        <v>-0.798507185</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>0.010405868</v>
+        <v>0.012107569</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>2.853083243</v>
+        <v>2.673882905</v>
       </c>
       <c r="T37" s="0" t="n">
-        <v>0.9883</v>
+        <v>0.9358</v>
       </c>
       <c r="W37" s="0" t="n">
-        <v>1.7558</v>
+        <v>2.0338</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <v>1.1228</v>
       </c>
       <c r="Y37" s="0" t="n">
-        <v>3.4961</v>
+        <v>3.3116</v>
       </c>
       <c r="AB37" s="0" t="n">
-        <v>-81.816</v>
+        <v>-82.344</v>
       </c>
       <c r="AC37" s="0" t="n">
-        <v>-12.347</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-12.322</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>106</v>
       </c>
@@ -3392,10 +3417,10 @@
         <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>48</v>
@@ -3404,69 +3429,69 @@
         <v>49</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>-0.011173113</v>
+        <v>0.000784369</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>-0.015727172</v>
+        <v>-0.000537032</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.000136194</v>
+        <v>-0.00133881</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>-0.013420533</v>
+        <v>-0.004806816</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.229726952</v>
+        <v>0.103439309</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0.022915938</v>
+        <v>0.239877847</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>-0.048673187</v>
+        <v>-0.023028727</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0.379438037</v>
+        <v>0.36110916</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>-0.807704389</v>
+        <v>-0.798507185</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>-0.012059859</v>
+        <v>0.012107569</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>2.819701444</v>
+        <v>2.673882905</v>
       </c>
       <c r="T38" s="0" t="n">
-        <v>0.977</v>
+        <v>0.948</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>0.4168</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>1.7252</v>
-      </c>
-      <c r="X38" s="0" t="n">
-        <v>1.1813</v>
+        <v>2.0177</v>
       </c>
       <c r="Y38" s="0" t="n">
-        <v>3.6009</v>
+        <v>3.3358</v>
       </c>
       <c r="AB38" s="0" t="n">
-        <v>-81.36</v>
+        <v>-82.344</v>
       </c>
       <c r="AC38" s="0" t="n">
-        <v>-12.34</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-12.322</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>48</v>
@@ -3475,66 +3500,63 @@
         <v>49</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>-0.001828615</v>
+        <v>-0.012384247</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>-0.002236324</v>
+        <v>-0.008662746</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>-0.00145954</v>
+        <v>-0.000313138</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>-0.004198752</v>
+        <v>-0.011986366</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0.635231917</v>
+        <v>0.227336303</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>0.232023301</v>
+        <v>0.037369845</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>-0.015775932</v>
+        <v>-0.049723206</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.386433348</v>
+        <v>0.354200029</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>-0.796006763</v>
+        <v>-0.811686654</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>0.010952677</v>
+        <v>-0.011236236</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>2.853683177</v>
+        <v>2.688623583</v>
       </c>
       <c r="T39" s="0" t="n">
-        <v>1.0107</v>
+        <v>0.939</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>1.7933</v>
-      </c>
-      <c r="X39" s="0" t="n">
-        <v>1.1908</v>
+        <v>1.6933</v>
       </c>
       <c r="Y39" s="0" t="n">
-        <v>3.6512</v>
+        <v>3.3321</v>
       </c>
       <c r="AB39" s="0" t="n">
-        <v>-80.657</v>
+        <v>-82.319</v>
       </c>
       <c r="AC39" s="0" t="n">
-        <v>-12.075</v>
+        <v>-12.33</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>111</v>
@@ -3546,58 +3568,52 @@
         <v>49</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>-0.002685641</v>
+        <v>0.000791566</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>-0.012631921</v>
+        <v>0.002196834</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.000548769</v>
+        <v>-0.000602125</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>-0.014051836</v>
+        <v>-0.006399335</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>1.915448603</v>
+        <v>0.20634927</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>2.611894333</v>
+        <v>0.24821908</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.002842557</v>
+        <v>-0.015888774</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>5.969457735</v>
+        <v>0.389891339</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>12.58502882</v>
+        <v>-0.750371788</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>-0.04164915</v>
+        <v>0.010405868</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>23.75394204</v>
-      </c>
-      <c r="S40" s="0" t="n">
-        <v>0.0997</v>
+        <v>2.853083243</v>
       </c>
       <c r="T40" s="0" t="n">
-        <v>28.1505</v>
+        <v>0.9883</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>17.758</v>
-      </c>
-      <c r="X40" s="0" t="n">
-        <v>1.2211</v>
+        <v>1.7558</v>
       </c>
       <c r="Y40" s="0" t="n">
-        <v>20.3349</v>
+        <v>3.4961</v>
       </c>
       <c r="AB40" s="0" t="n">
-        <v>-72.18</v>
+        <v>-81.816</v>
       </c>
       <c r="AC40" s="0" t="n">
-        <v>-10.942</v>
+        <v>-12.347</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,48 +3621,144 @@
         <v>112</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>-0.011173113</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>-0.015727172</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0.000136194</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>-0.013420533</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>0.229726952</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>0.022915938</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>-0.048673187</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0.379438037</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>-0.807704389</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>-0.012059859</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>2.819701444</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>1.7252</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <v>1.1813</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <v>3.6009</v>
+      </c>
+      <c r="AB41" s="0" t="n">
+        <v>-81.36</v>
+      </c>
+      <c r="AC41" s="0" t="n">
+        <v>-12.34</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB41" s="0" t="n">
-        <v>-68.854</v>
-      </c>
-      <c r="AC41" s="0" t="n">
-        <v>-9.698</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>68</v>
+        <v>48</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>-0.001828615</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>-0.002236324</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>-0.00145954</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>-0.004198752</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>0.635231917</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0.232023301</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>-0.015775932</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.386433348</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>-0.796006763</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>0.010952677</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>2.853683177</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>1.0107</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>1.7933</v>
+      </c>
+      <c r="X42" s="0" t="n">
+        <v>1.1908</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <v>3.6512</v>
       </c>
       <c r="AB42" s="0" t="n">
-        <v>-78.887</v>
+        <v>-80.657</v>
       </c>
       <c r="AC42" s="0" t="n">
-        <v>-11.042</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-12.075</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>116</v>
       </c>
@@ -3654,10 +3766,10 @@
         <v>31</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>48</v>
@@ -3666,212 +3778,107 @@
         <v>49</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.07070274</v>
+        <v>-0.002685641</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0.065629733</v>
+        <v>-0.012631921</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.000484385</v>
+        <v>0.000548769</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0.03255743</v>
+        <v>-0.014051836</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>3.058230455</v>
+        <v>1.915448603</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>2.587608353</v>
+        <v>2.611894333</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.034568565</v>
+        <v>0.002842557</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>8.758447425</v>
+        <v>5.969457735</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>19.9942659</v>
+        <v>12.58502882</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>-0.083201787</v>
+        <v>-0.04164915</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>57.31774663</v>
+        <v>23.75394204</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>0.0997</v>
       </c>
       <c r="T43" s="0" t="n">
-        <v>36.24354745</v>
+        <v>28.1505</v>
       </c>
       <c r="W43" s="0" t="n">
-        <v>13.79784939</v>
+        <v>17.758</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <v>1.2211</v>
       </c>
       <c r="Y43" s="0" t="n">
-        <v>50.59468528</v>
-      </c>
-      <c r="Z43" s="0" t="s">
-        <v>50</v>
+        <v>20.3349</v>
       </c>
       <c r="AB43" s="0" t="n">
-        <v>-66.095</v>
+        <v>-72.18</v>
       </c>
       <c r="AC43" s="0" t="n">
-        <v>-9.827</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-10.942</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0.06642303</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>0.068312251</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>-0.000212807</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>0.02399678</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>3.025307521</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>2.42615384</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>0.028481244</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>8.901892075</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <v>21.65424121</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>-0.085777963</v>
-      </c>
-      <c r="R44" s="0" t="n">
-        <v>64.01730457</v>
-      </c>
-      <c r="S44" s="0" t="n">
-        <v>0.001488139</v>
-      </c>
-      <c r="T44" s="0" t="n">
-        <v>36.58841901</v>
-      </c>
-      <c r="U44" s="0" t="n">
-        <v>0.793567672</v>
-      </c>
-      <c r="W44" s="0" t="n">
-        <v>13.73243499</v>
-      </c>
-      <c r="Y44" s="0" t="n">
-        <v>48.18684922</v>
-      </c>
-      <c r="Z44" s="0" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="AB44" s="0" t="n">
-        <v>-66.847</v>
+        <v>-68.854</v>
       </c>
       <c r="AC44" s="0" t="n">
-        <v>-9.862</v>
+        <v>-9.698</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>0.082406714</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>0.052983714</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>-7.16263E-005</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <v>-0.007114412</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>2.817823734</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>2.326500989</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>0.030483384</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <v>8.663945967</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>20.47346407</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>-0.051498708</v>
-      </c>
-      <c r="R45" s="0" t="n">
-        <v>52.87541848</v>
-      </c>
-      <c r="S45" s="0" t="n">
-        <v>0.039951549</v>
-      </c>
-      <c r="T45" s="0" t="n">
-        <v>34.27060158</v>
-      </c>
-      <c r="U45" s="0" t="n">
-        <v>0.793551784</v>
-      </c>
-      <c r="W45" s="0" t="n">
-        <v>12.65017776</v>
-      </c>
-      <c r="Y45" s="0" t="n">
-        <v>45.78276962</v>
-      </c>
-      <c r="Z45" s="0" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="AB45" s="0" t="n">
-        <v>-67.317</v>
+        <v>-78.887</v>
       </c>
       <c r="AC45" s="0" t="n">
-        <v>-9.8</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-11.042</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>122</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>128</v>
       </c>
@@ -4013,7 +4020,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>132</v>
       </c>
@@ -4030,7 +4037,7 @@
         <v>34</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>134</v>
@@ -4099,10 +4106,10 @@
         <v>-12.284</v>
       </c>
       <c r="AD48" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>135</v>
       </c>
@@ -4191,7 +4198,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>137</v>
       </c>
@@ -4268,10 +4275,10 @@
         <v>-13.33</v>
       </c>
       <c r="AD50" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>140</v>
       </c>
@@ -4345,7 +4352,7 @@
         <v>-12.059</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>143</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>141</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>48</v>
@@ -4416,7 +4423,7 @@
         <v>-11.153</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>144</v>
       </c>
@@ -4490,7 +4497,7 @@
         <v>-11.054</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>146</v>
       </c>
@@ -4564,7 +4571,7 @@
         <v>-12.15</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>147</v>
       </c>
@@ -4635,7 +4642,7 @@
         <v>-11.486</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>150</v>
       </c>
@@ -4709,7 +4716,7 @@
         <v>-11.52</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>152</v>
       </c>
@@ -4783,7 +4790,7 @@
         <v>-12.072</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>153</v>
       </c>
@@ -4857,7 +4864,7 @@
         <v>-12.424</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>154</v>
       </c>
@@ -4931,7 +4938,7 @@
         <v>-11.499</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>155</v>
       </c>
@@ -5008,7 +5015,7 @@
         <v>-11.365</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>156</v>
       </c>
@@ -5073,7 +5080,7 @@
         <v>3.7466</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>157</v>
       </c>
@@ -5141,7 +5148,7 @@
         <v>3.3289</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>158</v>
       </c>
@@ -5218,7 +5225,7 @@
         <v>-11.01</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>160</v>
       </c>
@@ -5292,7 +5299,7 @@
         <v>-11.181</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>161</v>
       </c>
@@ -5366,7 +5373,7 @@
         <v>-11.338</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>162</v>
       </c>
@@ -5437,7 +5444,7 @@
         <v>-11.287</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>164</v>
       </c>
@@ -5511,7 +5518,7 @@
         <v>-12.526</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>167</v>
       </c>
@@ -5579,7 +5586,7 @@
         <v>2.8216</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>168</v>
       </c>
@@ -5653,7 +5660,7 @@
         <v>-13.215</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>169</v>
       </c>
@@ -5730,7 +5737,7 @@
         <v>-13.038</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>169</v>
       </c>
@@ -5807,7 +5814,7 @@
         <v>-13.038</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>169</v>
       </c>
@@ -5884,7 +5891,7 @@
         <v>-13.038</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>169</v>
       </c>
@@ -5961,7 +5968,7 @@
         <v>-13.038</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>171</v>
       </c>
@@ -6029,7 +6036,7 @@
         <v>3.1954</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>173</v>
       </c>
@@ -6040,7 +6047,7 @@
         <v>174</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>175</v>
@@ -6055,7 +6062,7 @@
         <v>-10.741</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>176</v>
       </c>
@@ -6069,7 +6076,7 @@
         <v>33</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>-0.005760092</v>
@@ -6126,7 +6133,7 @@
         <v>-11.193</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>178</v>
       </c>
@@ -6140,7 +6147,7 @@
         <v>33</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="T77" s="0" t="n">
         <v>1.2092</v>
@@ -6164,7 +6171,7 @@
         <v>-14.233</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>179</v>
       </c>
@@ -6175,7 +6182,7 @@
         <v>180</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>48</v>
@@ -6232,7 +6239,7 @@
         <v>-11.926</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>181</v>
       </c>
@@ -6243,7 +6250,7 @@
         <v>180</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>48</v>
@@ -6309,7 +6316,7 @@
         <v>-11.965</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>182</v>
       </c>
@@ -6320,7 +6327,7 @@
         <v>180</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>48</v>
@@ -6380,7 +6387,7 @@
         <v>-12.178</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>183</v>
       </c>
@@ -6391,7 +6398,7 @@
         <v>180</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>48</v>
@@ -6454,7 +6461,7 @@
         <v>-11.14</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>184</v>
       </c>
@@ -6465,7 +6472,7 @@
         <v>180</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>48</v>
@@ -6533,87 +6540,87 @@
         <v>185</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>188</v>
+        <v>48</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>-0.022544739</v>
+        <v>0.073389681</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>-0.01448515</v>
+        <v>0.033095115</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>0.000587156</v>
+        <v>-0.000588859</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>-0.010980137</v>
+        <v>-0.005107211</v>
       </c>
       <c r="L83" s="0" t="n">
-        <v>-0.144439162</v>
+        <v>1.717275929</v>
       </c>
       <c r="M83" s="0" t="n">
-        <v>-0.027036361</v>
+        <v>2.125236892</v>
       </c>
       <c r="N83" s="0" t="n">
-        <v>-0.052428058</v>
+        <v>0.046927467</v>
       </c>
       <c r="O83" s="0" t="n">
-        <v>0.017803848</v>
+        <v>6.874166194</v>
       </c>
       <c r="P83" s="0" t="n">
-        <v>-1.30920825</v>
+        <v>14.48239014</v>
       </c>
       <c r="Q83" s="0" t="n">
-        <v>-0.013028316</v>
+        <v>-0.02589841</v>
       </c>
       <c r="R83" s="0" t="n">
-        <v>0.249147493</v>
-      </c>
-      <c r="S83" s="0" t="n">
-        <v>0.046401456</v>
+        <v>37.27422707</v>
       </c>
       <c r="T83" s="0" t="n">
-        <v>1.65031151</v>
+        <v>26.5332</v>
+      </c>
+      <c r="U83" s="0" t="n">
+        <v>0.5784</v>
       </c>
       <c r="W83" s="0" t="n">
-        <v>2.216317094</v>
+        <v>12.5094</v>
+      </c>
+      <c r="X83" s="0" t="n">
+        <v>2.4881</v>
       </c>
       <c r="Y83" s="0" t="n">
-        <v>3.514948659</v>
-      </c>
-      <c r="Z83" s="0" t="s">
-        <v>50</v>
+        <v>17.9355</v>
       </c>
       <c r="AB83" s="0" t="n">
-        <v>-87.824</v>
+        <v>-73.286</v>
       </c>
       <c r="AC83" s="0" t="n">
-        <v>-13.232</v>
+        <v>-10.867</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>48</v>
@@ -6622,72 +6629,75 @@
         <v>49</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.005751086</v>
+        <v>0.070637424</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>-0.001594801</v>
+        <v>0.020082108</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>-0.000460474</v>
+        <v>0.00050659</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>-0.008715731</v>
+        <v>-0.012105197</v>
       </c>
       <c r="L84" s="0" t="n">
-        <v>1.556659486</v>
+        <v>1.691012978</v>
       </c>
       <c r="M84" s="0" t="n">
-        <v>0.26567925</v>
+        <v>2.037879893</v>
       </c>
       <c r="N84" s="0" t="n">
-        <v>-0.027139243</v>
+        <v>0.014196681</v>
       </c>
       <c r="O84" s="0" t="n">
-        <v>0.494133521</v>
+        <v>6.473914354</v>
       </c>
       <c r="P84" s="0" t="n">
-        <v>-0.682421335</v>
+        <v>15.00412892</v>
       </c>
       <c r="Q84" s="0" t="n">
-        <v>0.02795452</v>
+        <v>-0.048246078</v>
       </c>
       <c r="R84" s="0" t="n">
-        <v>3.675777001</v>
+        <v>42.02868815</v>
       </c>
       <c r="T84" s="0" t="n">
-        <v>1.3385</v>
+        <v>26.9716</v>
       </c>
       <c r="U84" s="0" t="n">
-        <v>0.4164</v>
+        <v>0.5792</v>
+      </c>
+      <c r="V84" s="0" t="n">
+        <v>0.8873</v>
       </c>
       <c r="W84" s="0" t="n">
-        <v>1.8294</v>
+        <v>12.1715</v>
       </c>
       <c r="X84" s="0" t="n">
-        <v>1.6977</v>
+        <v>2.4636</v>
       </c>
       <c r="Y84" s="0" t="n">
-        <v>3.9802</v>
+        <v>17.6921</v>
       </c>
       <c r="AB84" s="0" t="n">
-        <v>-82.631</v>
+        <v>-73.13</v>
       </c>
       <c r="AC84" s="0" t="n">
-        <v>-12.148</v>
+        <v>-10.889</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>48</v>
@@ -6696,72 +6706,72 @@
         <v>49</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.007588714</v>
+        <v>0.09371576</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>0.001398657</v>
+        <v>0.022349993</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>-0.000993251</v>
+        <v>0.000771412</v>
       </c>
       <c r="K85" s="0" t="n">
-        <v>-0.007581166</v>
+        <v>0.012555797</v>
       </c>
       <c r="L85" s="0" t="n">
-        <v>1.402101091</v>
+        <v>1.92348851</v>
       </c>
       <c r="M85" s="0" t="n">
-        <v>0.258908585</v>
+        <v>3.179864224</v>
       </c>
       <c r="N85" s="0" t="n">
-        <v>-0.018561022</v>
+        <v>0.085974481</v>
       </c>
       <c r="O85" s="0" t="n">
-        <v>0.522499145</v>
+        <v>6.329468583</v>
       </c>
       <c r="P85" s="0" t="n">
-        <v>-0.68582992</v>
+        <v>13.72267556</v>
       </c>
       <c r="Q85" s="0" t="n">
-        <v>0.021494264</v>
+        <v>0.036606383</v>
       </c>
       <c r="R85" s="0" t="n">
-        <v>3.749329624</v>
+        <v>38.94465603</v>
+      </c>
+      <c r="S85" s="0" t="n">
+        <v>0.0105</v>
       </c>
       <c r="T85" s="0" t="n">
-        <v>1.331</v>
-      </c>
-      <c r="U85" s="0" t="n">
-        <v>0.4326</v>
+        <v>25.3363</v>
       </c>
       <c r="W85" s="0" t="n">
-        <v>1.8344</v>
+        <v>9.2361</v>
       </c>
       <c r="X85" s="0" t="n">
-        <v>1.7474</v>
+        <v>2.469</v>
       </c>
       <c r="Y85" s="0" t="n">
-        <v>3.9442</v>
+        <v>15.9516</v>
       </c>
       <c r="AB85" s="0" t="n">
-        <v>-81.928</v>
+        <v>-71.721</v>
       </c>
       <c r="AC85" s="0" t="n">
-        <v>-12.094</v>
+        <v>-10.743</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>48</v>
@@ -6769,40 +6779,40 @@
       <c r="F86" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="S86" s="0" t="n">
+        <v>0.0095</v>
+      </c>
       <c r="T86" s="0" t="n">
-        <v>1.3533</v>
-      </c>
-      <c r="U86" s="0" t="n">
-        <v>0.4237</v>
+        <v>24.71</v>
       </c>
       <c r="W86" s="0" t="n">
-        <v>1.7832</v>
+        <v>7.9897</v>
       </c>
       <c r="X86" s="0" t="n">
-        <v>1.7005</v>
+        <v>2.4559</v>
       </c>
       <c r="Y86" s="0" t="n">
-        <v>3.7645</v>
+        <v>14.2168</v>
       </c>
       <c r="AB86" s="0" t="n">
-        <v>-82.383</v>
+        <v>-71.931</v>
       </c>
       <c r="AC86" s="0" t="n">
-        <v>-12.466</v>
+        <v>-10.744</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>48</v>
@@ -6811,69 +6821,72 @@
         <v>49</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.02173889</v>
+        <v>0.083669189</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>0.000697066</v>
+        <v>-0.00226064</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>-0.001176202</v>
+        <v>0.00045717</v>
       </c>
       <c r="K87" s="0" t="n">
-        <v>-0.008137154</v>
+        <v>-0.011512518</v>
       </c>
       <c r="L87" s="0" t="n">
-        <v>1.010726775</v>
+        <v>1.800713462</v>
       </c>
       <c r="M87" s="0" t="n">
-        <v>0.269050581</v>
+        <v>1.923754303</v>
       </c>
       <c r="N87" s="0" t="n">
-        <v>-0.01891766</v>
+        <v>0.00481706</v>
       </c>
       <c r="O87" s="0" t="n">
-        <v>0.360545045</v>
+        <v>4.965463844</v>
       </c>
       <c r="P87" s="0" t="n">
-        <v>-0.82391887</v>
+        <v>11.85698455</v>
       </c>
       <c r="Q87" s="0" t="n">
-        <v>0.046167978</v>
+        <v>-0.001827759</v>
       </c>
       <c r="R87" s="0" t="n">
-        <v>2.817128657</v>
+        <v>28.6246763</v>
+      </c>
+      <c r="S87" s="0" t="n">
+        <v>0.0168</v>
       </c>
       <c r="T87" s="0" t="n">
-        <v>1.2732</v>
-      </c>
-      <c r="U87" s="0" t="n">
-        <v>0.4219</v>
+        <v>21.4189</v>
       </c>
       <c r="W87" s="0" t="n">
-        <v>1.6588</v>
+        <v>7.5566</v>
+      </c>
+      <c r="X87" s="0" t="n">
+        <v>2.3503</v>
       </c>
       <c r="Y87" s="0" t="n">
-        <v>3.1688</v>
+        <v>12.648</v>
       </c>
       <c r="AB87" s="0" t="n">
-        <v>-86.996</v>
+        <v>-73.063</v>
       </c>
       <c r="AC87" s="0" t="n">
-        <v>-13.057</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-10.739</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>48</v>
@@ -6881,136 +6894,103 @@
       <c r="F88" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H88" s="0" t="n">
-        <v>0.073389681</v>
-      </c>
-      <c r="I88" s="0" t="n">
-        <v>0.033095115</v>
-      </c>
-      <c r="J88" s="0" t="n">
-        <v>-0.000588859</v>
-      </c>
-      <c r="K88" s="0" t="n">
-        <v>-0.005107211</v>
-      </c>
-      <c r="L88" s="0" t="n">
-        <v>1.717275929</v>
-      </c>
-      <c r="M88" s="0" t="n">
-        <v>2.125236892</v>
-      </c>
-      <c r="N88" s="0" t="n">
-        <v>0.046927467</v>
-      </c>
-      <c r="O88" s="0" t="n">
-        <v>6.874166194</v>
-      </c>
-      <c r="P88" s="0" t="n">
-        <v>14.48239014</v>
-      </c>
-      <c r="Q88" s="0" t="n">
-        <v>-0.02589841</v>
-      </c>
-      <c r="R88" s="0" t="n">
-        <v>37.27422707</v>
+      <c r="S88" s="0" t="n">
+        <v>0.0245</v>
       </c>
       <c r="T88" s="0" t="n">
-        <v>26.5332</v>
+        <v>18.4941</v>
       </c>
       <c r="U88" s="0" t="n">
-        <v>0.5784</v>
+        <v>0.5759</v>
       </c>
       <c r="W88" s="0" t="n">
-        <v>12.5094</v>
+        <v>7.3462</v>
       </c>
       <c r="X88" s="0" t="n">
-        <v>2.4881</v>
+        <v>2.3953</v>
       </c>
       <c r="Y88" s="0" t="n">
-        <v>17.9355</v>
+        <v>12.1689</v>
       </c>
       <c r="AB88" s="0" t="n">
-        <v>-73.286</v>
+        <v>-73.732</v>
       </c>
       <c r="AC88" s="0" t="n">
-        <v>-10.867</v>
+        <v>-10.545</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G89" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="H89" s="0" t="n">
-        <v>0.070637424</v>
+        <v>-0.022544739</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>0.020082108</v>
+        <v>-0.01448515</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>0.00050659</v>
+        <v>0.000587156</v>
       </c>
       <c r="K89" s="0" t="n">
-        <v>-0.012105197</v>
+        <v>-0.010980137</v>
       </c>
       <c r="L89" s="0" t="n">
-        <v>1.691012978</v>
+        <v>-0.144439162</v>
       </c>
       <c r="M89" s="0" t="n">
-        <v>2.037879893</v>
+        <v>-0.027036361</v>
       </c>
       <c r="N89" s="0" t="n">
-        <v>0.014196681</v>
+        <v>-0.052428058</v>
       </c>
       <c r="O89" s="0" t="n">
-        <v>6.473914354</v>
+        <v>0.017803848</v>
       </c>
       <c r="P89" s="0" t="n">
-        <v>15.00412892</v>
+        <v>-1.30920825</v>
       </c>
       <c r="Q89" s="0" t="n">
-        <v>-0.048246078</v>
+        <v>-0.013028316</v>
       </c>
       <c r="R89" s="0" t="n">
-        <v>42.02868815</v>
+        <v>0.249147493</v>
+      </c>
+      <c r="S89" s="0" t="n">
+        <v>0.046401456</v>
       </c>
       <c r="T89" s="0" t="n">
-        <v>26.9716</v>
-      </c>
-      <c r="U89" s="0" t="n">
-        <v>0.5792</v>
-      </c>
-      <c r="V89" s="0" t="n">
-        <v>0.8873</v>
+        <v>1.65031151</v>
       </c>
       <c r="W89" s="0" t="n">
-        <v>12.1715</v>
-      </c>
-      <c r="X89" s="0" t="n">
-        <v>2.4636</v>
+        <v>2.216317094</v>
       </c>
       <c r="Y89" s="0" t="n">
-        <v>17.6921</v>
+        <v>3.514948659</v>
+      </c>
+      <c r="Z89" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="AB89" s="0" t="n">
-        <v>-73.13</v>
+        <v>-87.824</v>
       </c>
       <c r="AC89" s="0" t="n">
-        <v>-10.889</v>
+        <v>-13.232</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7018,13 +6998,13 @@
         <v>197</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>48</v>
@@ -7033,72 +7013,72 @@
         <v>49</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.09371576</v>
+        <v>0.005751086</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>0.022349993</v>
+        <v>-0.001594801</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>0.000771412</v>
+        <v>-0.000460474</v>
       </c>
       <c r="K90" s="0" t="n">
-        <v>0.012555797</v>
+        <v>-0.008715731</v>
       </c>
       <c r="L90" s="0" t="n">
-        <v>1.92348851</v>
+        <v>1.556659486</v>
       </c>
       <c r="M90" s="0" t="n">
-        <v>3.179864224</v>
+        <v>0.26567925</v>
       </c>
       <c r="N90" s="0" t="n">
-        <v>0.085974481</v>
+        <v>-0.027139243</v>
       </c>
       <c r="O90" s="0" t="n">
-        <v>6.329468583</v>
+        <v>0.494133521</v>
       </c>
       <c r="P90" s="0" t="n">
-        <v>13.72267556</v>
+        <v>-0.682421335</v>
       </c>
       <c r="Q90" s="0" t="n">
-        <v>0.036606383</v>
+        <v>0.02795452</v>
       </c>
       <c r="R90" s="0" t="n">
-        <v>38.94465603</v>
-      </c>
-      <c r="S90" s="0" t="n">
-        <v>0.0105</v>
+        <v>3.675777001</v>
       </c>
       <c r="T90" s="0" t="n">
-        <v>25.3363</v>
+        <v>1.3385</v>
+      </c>
+      <c r="U90" s="0" t="n">
+        <v>0.4164</v>
       </c>
       <c r="W90" s="0" t="n">
-        <v>9.2361</v>
+        <v>1.8294</v>
       </c>
       <c r="X90" s="0" t="n">
-        <v>2.469</v>
+        <v>1.6977</v>
       </c>
       <c r="Y90" s="0" t="n">
-        <v>15.9516</v>
+        <v>3.9802</v>
       </c>
       <c r="AB90" s="0" t="n">
-        <v>-71.721</v>
+        <v>-82.631</v>
       </c>
       <c r="AC90" s="0" t="n">
-        <v>-10.743</v>
+        <v>-12.148</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>48</v>
@@ -7106,40 +7086,73 @@
       <c r="F91" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="S91" s="0" t="n">
-        <v>0.0095</v>
+      <c r="H91" s="0" t="n">
+        <v>0.007588714</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>0.001398657</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <v>-0.000993251</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>-0.007581166</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <v>1.402101091</v>
+      </c>
+      <c r="M91" s="0" t="n">
+        <v>0.258908585</v>
+      </c>
+      <c r="N91" s="0" t="n">
+        <v>-0.018561022</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <v>0.522499145</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <v>-0.68582992</v>
+      </c>
+      <c r="Q91" s="0" t="n">
+        <v>0.021494264</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <v>3.749329624</v>
       </c>
       <c r="T91" s="0" t="n">
-        <v>24.71</v>
+        <v>1.331</v>
+      </c>
+      <c r="U91" s="0" t="n">
+        <v>0.4326</v>
       </c>
       <c r="W91" s="0" t="n">
-        <v>7.9897</v>
+        <v>1.8344</v>
       </c>
       <c r="X91" s="0" t="n">
-        <v>2.4559</v>
+        <v>1.7474</v>
       </c>
       <c r="Y91" s="0" t="n">
-        <v>14.2168</v>
+        <v>3.9442</v>
       </c>
       <c r="AB91" s="0" t="n">
-        <v>-71.931</v>
+        <v>-81.928</v>
       </c>
       <c r="AC91" s="0" t="n">
-        <v>-10.744</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-12.094</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>48</v>
@@ -7147,56 +7160,29 @@
       <c r="F92" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H92" s="0" t="n">
-        <v>0.00863596</v>
-      </c>
-      <c r="I92" s="0" t="n">
-        <v>-0.000980345</v>
-      </c>
-      <c r="J92" s="0" t="n">
-        <v>-0.000832858</v>
-      </c>
-      <c r="K92" s="0" t="n">
-        <v>-0.003494147</v>
-      </c>
-      <c r="L92" s="0" t="n">
-        <v>1.150045414</v>
-      </c>
-      <c r="M92" s="0" t="n">
-        <v>0.241614625</v>
-      </c>
-      <c r="N92" s="0" t="n">
-        <v>-0.021311297</v>
-      </c>
-      <c r="O92" s="0" t="n">
-        <v>0.364991639</v>
-      </c>
-      <c r="P92" s="0" t="n">
-        <v>-0.80725895</v>
-      </c>
-      <c r="Q92" s="0" t="n">
-        <v>0.043509883</v>
-      </c>
-      <c r="R92" s="0" t="n">
-        <v>2.786990661</v>
-      </c>
       <c r="T92" s="0" t="n">
-        <v>1.4636</v>
+        <v>1.3533</v>
+      </c>
+      <c r="U92" s="0" t="n">
+        <v>0.4237</v>
       </c>
       <c r="W92" s="0" t="n">
-        <v>2.2376</v>
+        <v>1.7832</v>
+      </c>
+      <c r="X92" s="0" t="n">
+        <v>1.7005</v>
       </c>
       <c r="Y92" s="0" t="n">
-        <v>3.1972</v>
+        <v>3.7645</v>
       </c>
       <c r="AB92" s="0" t="n">
-        <v>-84.793</v>
+        <v>-82.383</v>
       </c>
       <c r="AC92" s="0" t="n">
-        <v>-12.564</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-12.466</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>201</v>
       </c>
@@ -7204,10 +7190,10 @@
         <v>40</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>48</v>
@@ -7216,61 +7202,58 @@
         <v>49</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.007476417</v>
+        <v>0.02173889</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>0.000206288</v>
+        <v>0.000697066</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>-0.001158914</v>
+        <v>-0.001176202</v>
       </c>
       <c r="K93" s="0" t="n">
-        <v>-0.005412438</v>
+        <v>-0.008137154</v>
       </c>
       <c r="L93" s="0" t="n">
-        <v>1.017872869</v>
+        <v>1.010726775</v>
       </c>
       <c r="M93" s="0" t="n">
-        <v>0.245271537</v>
+        <v>0.269050581</v>
       </c>
       <c r="N93" s="0" t="n">
-        <v>-0.016455663</v>
+        <v>-0.01891766</v>
       </c>
       <c r="O93" s="0" t="n">
-        <v>0.357069259</v>
+        <v>0.360545045</v>
       </c>
       <c r="P93" s="0" t="n">
-        <v>-0.84219619</v>
+        <v>-0.82391887</v>
       </c>
       <c r="Q93" s="0" t="n">
-        <v>0.038871603</v>
+        <v>0.046167978</v>
       </c>
       <c r="R93" s="0" t="n">
-        <v>2.698008937</v>
+        <v>2.817128657</v>
       </c>
       <c r="T93" s="0" t="n">
-        <v>1.4376</v>
+        <v>1.2732</v>
       </c>
       <c r="U93" s="0" t="n">
-        <v>0.5889</v>
+        <v>0.4219</v>
       </c>
       <c r="W93" s="0" t="n">
-        <v>2.1944</v>
-      </c>
-      <c r="X93" s="0" t="n">
-        <v>2.1993</v>
+        <v>1.6588</v>
       </c>
       <c r="Y93" s="0" t="n">
-        <v>3.2416</v>
+        <v>3.1688</v>
       </c>
       <c r="AB93" s="0" t="n">
-        <v>-84.459</v>
+        <v>-86.996</v>
       </c>
       <c r="AC93" s="0" t="n">
-        <v>-12.484</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-13.057</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>202</v>
       </c>
@@ -7278,10 +7261,10 @@
         <v>40</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>48</v>
@@ -7290,69 +7273,66 @@
         <v>49</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.000523073</v>
+        <v>0.00863596</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>-0.01474231</v>
+        <v>-0.000980345</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>-0.000116398</v>
+        <v>-0.000832858</v>
       </c>
       <c r="K94" s="0" t="n">
-        <v>-0.002091972</v>
+        <v>-0.003494147</v>
       </c>
       <c r="L94" s="0" t="n">
-        <v>0.976825194</v>
+        <v>1.150045414</v>
       </c>
       <c r="M94" s="0" t="n">
-        <v>0.002551917</v>
+        <v>0.241614625</v>
       </c>
       <c r="N94" s="0" t="n">
-        <v>-0.04345004</v>
+        <v>-0.021311297</v>
       </c>
       <c r="O94" s="0" t="n">
-        <v>0.307319519</v>
+        <v>0.364991639</v>
       </c>
       <c r="P94" s="0" t="n">
-        <v>-0.875760075</v>
+        <v>-0.80725895</v>
       </c>
       <c r="Q94" s="0" t="n">
-        <v>0.022753804</v>
+        <v>0.043509883</v>
       </c>
       <c r="R94" s="0" t="n">
-        <v>2.460775089</v>
+        <v>2.786990661</v>
       </c>
       <c r="T94" s="0" t="n">
-        <v>1.4718</v>
-      </c>
-      <c r="U94" s="0" t="n">
-        <v>0.5792</v>
+        <v>1.4636</v>
       </c>
       <c r="W94" s="0" t="n">
-        <v>2.0527</v>
+        <v>2.2376</v>
       </c>
       <c r="Y94" s="0" t="n">
-        <v>3.0893</v>
+        <v>3.1972</v>
       </c>
       <c r="AB94" s="0" t="n">
-        <v>-85.437</v>
+        <v>-84.793</v>
       </c>
       <c r="AC94" s="0" t="n">
-        <v>-12.629</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-12.564</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>48</v>
@@ -7361,66 +7341,72 @@
         <v>49</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.009029928</v>
+        <v>0.007476417</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>-0.000673684</v>
+        <v>0.000206288</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>-0.001201484</v>
+        <v>-0.001158914</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>0.001432663</v>
+        <v>-0.005412438</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>0.947297288</v>
+        <v>1.017872869</v>
       </c>
       <c r="M95" s="0" t="n">
-        <v>0.231896354</v>
+        <v>0.245271537</v>
       </c>
       <c r="N95" s="0" t="n">
-        <v>-0.014212064</v>
+        <v>-0.016455663</v>
       </c>
       <c r="O95" s="0" t="n">
-        <v>0.294665178</v>
+        <v>0.357069259</v>
       </c>
       <c r="P95" s="0" t="n">
-        <v>-0.869760777</v>
+        <v>-0.84219619</v>
       </c>
       <c r="Q95" s="0" t="n">
-        <v>0.066334377</v>
+        <v>0.038871603</v>
       </c>
       <c r="R95" s="0" t="n">
-        <v>2.411926803</v>
+        <v>2.698008937</v>
       </c>
       <c r="T95" s="0" t="n">
-        <v>1.4211</v>
+        <v>1.4376</v>
+      </c>
+      <c r="U95" s="0" t="n">
+        <v>0.5889</v>
       </c>
       <c r="W95" s="0" t="n">
-        <v>2.0747</v>
+        <v>2.1944</v>
       </c>
       <c r="X95" s="0" t="n">
-        <v>2.162</v>
+        <v>2.1993</v>
       </c>
       <c r="Y95" s="0" t="n">
-        <v>2.8366</v>
-      </c>
-      <c r="AA95" s="0" t="s">
+        <v>3.2416</v>
+      </c>
+      <c r="AB95" s="0" t="n">
+        <v>-84.459</v>
+      </c>
+      <c r="AC95" s="0" t="n">
+        <v>-12.484</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>48</v>
@@ -7429,140 +7415,137 @@
         <v>49</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>-0.005308506</v>
+        <v>0.000523073</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>-0.015564569</v>
+        <v>-0.01474231</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>-2.6658E-006</v>
+        <v>-0.000116398</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>-0.009873745</v>
+        <v>-0.002091972</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>0.859895617</v>
+        <v>0.976825194</v>
       </c>
       <c r="M96" s="0" t="n">
-        <v>0.026292909</v>
+        <v>0.002551917</v>
       </c>
       <c r="N96" s="0" t="n">
-        <v>-0.047404996</v>
+        <v>-0.04345004</v>
       </c>
       <c r="O96" s="0" t="n">
-        <v>0.287033152</v>
+        <v>0.307319519</v>
       </c>
       <c r="P96" s="0" t="n">
-        <v>-0.889368313</v>
+        <v>-0.875760075</v>
       </c>
       <c r="Q96" s="0" t="n">
-        <v>0.027770743</v>
+        <v>0.022753804</v>
       </c>
       <c r="R96" s="0" t="n">
-        <v>2.290268873</v>
+        <v>2.460775089</v>
       </c>
       <c r="T96" s="0" t="n">
-        <v>1.4203</v>
+        <v>1.4718</v>
       </c>
       <c r="U96" s="0" t="n">
-        <v>0.5776</v>
+        <v>0.5792</v>
       </c>
       <c r="W96" s="0" t="n">
-        <v>2.2482</v>
+        <v>2.0527</v>
       </c>
       <c r="Y96" s="0" t="n">
-        <v>2.8978</v>
+        <v>3.0893</v>
       </c>
       <c r="AB96" s="0" t="n">
-        <v>-86.183</v>
+        <v>-85.437</v>
       </c>
       <c r="AC96" s="0" t="n">
-        <v>-12.693</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-12.629</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>79</v>
+        <v>48</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>-0.008248453</v>
+        <v>0.009029928</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>0.002126952</v>
+        <v>-0.000673684</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>-0.000754594</v>
+        <v>-0.001201484</v>
       </c>
       <c r="K97" s="0" t="n">
-        <v>-0.003791454</v>
+        <v>0.001432663</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>0.185059359</v>
+        <v>0.947297288</v>
       </c>
       <c r="M97" s="0" t="n">
-        <v>0.353835338</v>
+        <v>0.231896354</v>
       </c>
       <c r="N97" s="0" t="n">
-        <v>-0.020866083</v>
+        <v>-0.014212064</v>
       </c>
       <c r="O97" s="0" t="n">
-        <v>0.132893103</v>
+        <v>0.294665178</v>
       </c>
       <c r="P97" s="0" t="n">
-        <v>-1.12178083</v>
+        <v>-0.869760777</v>
       </c>
       <c r="Q97" s="0" t="n">
-        <v>0.011761921</v>
+        <v>0.066334377</v>
       </c>
       <c r="R97" s="0" t="n">
-        <v>0.566001164</v>
+        <v>2.411926803</v>
       </c>
       <c r="T97" s="0" t="n">
-        <v>1.3179</v>
-      </c>
-      <c r="U97" s="0" t="n">
-        <v>0.5913</v>
+        <v>1.4211</v>
       </c>
       <c r="W97" s="0" t="n">
-        <v>1.3875</v>
+        <v>2.0747</v>
       </c>
       <c r="X97" s="0" t="n">
-        <v>2.2004</v>
+        <v>2.162</v>
       </c>
       <c r="Y97" s="0" t="n">
-        <v>1.0012</v>
-      </c>
-      <c r="AB97" s="0" t="n">
-        <v>-89.353</v>
-      </c>
-      <c r="AC97" s="0" t="n">
-        <v>-12.731</v>
+        <v>2.8366</v>
+      </c>
+      <c r="AA97" s="0" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>48</v>
@@ -7571,449 +7554,440 @@
         <v>49</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.068305274</v>
+        <v>-0.005308506</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>0.026475289</v>
+        <v>-0.015564569</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>-0.000849062</v>
+        <v>-2.6658E-006</v>
       </c>
       <c r="K98" s="0" t="n">
-        <v>-0.005995976</v>
+        <v>-0.009873745</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>1.168095632</v>
+        <v>0.859895617</v>
       </c>
       <c r="M98" s="0" t="n">
-        <v>2.257125662</v>
+        <v>0.026292909</v>
       </c>
       <c r="N98" s="0" t="n">
-        <v>0.036872676</v>
+        <v>-0.047404996</v>
       </c>
       <c r="O98" s="0" t="n">
-        <v>6.879177807</v>
+        <v>0.287033152</v>
       </c>
       <c r="P98" s="0" t="n">
-        <v>16.28033444</v>
+        <v>-0.889368313</v>
       </c>
       <c r="Q98" s="0" t="n">
-        <v>-0.019193651</v>
+        <v>0.027770743</v>
       </c>
       <c r="R98" s="0" t="n">
-        <v>40.23150622</v>
+        <v>2.290268873</v>
       </c>
       <c r="T98" s="0" t="n">
-        <v>31.0924</v>
+        <v>1.4203</v>
       </c>
       <c r="U98" s="0" t="n">
-        <v>0.5819</v>
+        <v>0.5776</v>
       </c>
       <c r="W98" s="0" t="n">
-        <v>12.7652</v>
-      </c>
-      <c r="X98" s="0" t="n">
-        <v>2.4245</v>
+        <v>2.2482</v>
       </c>
       <c r="Y98" s="0" t="n">
-        <v>18.4906</v>
+        <v>2.8978</v>
       </c>
       <c r="AB98" s="0" t="n">
-        <v>-68.677</v>
+        <v>-86.183</v>
       </c>
       <c r="AC98" s="0" t="n">
-        <v>-9.988</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-12.693</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>-0.003002955</v>
+        <v>-0.008248453</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>-0.015022065</v>
+        <v>0.002126952</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>0.000546942</v>
+        <v>-0.000754594</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>-0.004406859</v>
+        <v>-0.003791454</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>0.733681535</v>
+        <v>0.185059359</v>
       </c>
       <c r="M99" s="0" t="n">
-        <v>0.050678134</v>
+        <v>0.353835338</v>
       </c>
       <c r="N99" s="0" t="n">
-        <v>-0.046811064</v>
+        <v>-0.020866083</v>
       </c>
       <c r="O99" s="0" t="n">
-        <v>0.227469347</v>
+        <v>0.132893103</v>
       </c>
       <c r="P99" s="0" t="n">
-        <v>-0.949228025</v>
+        <v>-1.12178083</v>
       </c>
       <c r="Q99" s="0" t="n">
-        <v>0.045719201</v>
+        <v>0.011761921</v>
       </c>
       <c r="R99" s="0" t="n">
-        <v>1.923157102</v>
+        <v>0.566001164</v>
       </c>
       <c r="T99" s="0" t="n">
-        <v>1.779603237</v>
+        <v>1.3179</v>
+      </c>
+      <c r="U99" s="0" t="n">
+        <v>0.5913</v>
       </c>
       <c r="W99" s="0" t="n">
-        <v>2.556605766</v>
+        <v>1.3875</v>
       </c>
       <c r="X99" s="0" t="n">
-        <v>1.595329548</v>
+        <v>2.2004</v>
       </c>
       <c r="Y99" s="0" t="n">
-        <v>5.863016648</v>
-      </c>
-      <c r="Z99" s="0" t="s">
-        <v>50</v>
+        <v>1.0012</v>
       </c>
       <c r="AB99" s="0" t="n">
-        <v>-86.889</v>
+        <v>-89.353</v>
       </c>
       <c r="AC99" s="0" t="n">
-        <v>-12.713</v>
+        <v>-12.731</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>212</v>
+        <v>48</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>0.068305274</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>0.026475289</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>-0.000849062</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>-0.005995976</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <v>1.168095632</v>
+      </c>
+      <c r="M100" s="0" t="n">
+        <v>2.257125662</v>
+      </c>
+      <c r="N100" s="0" t="n">
+        <v>0.036872676</v>
+      </c>
+      <c r="O100" s="0" t="n">
+        <v>6.879177807</v>
+      </c>
+      <c r="P100" s="0" t="n">
+        <v>16.28033444</v>
+      </c>
+      <c r="Q100" s="0" t="n">
+        <v>-0.019193651</v>
+      </c>
+      <c r="R100" s="0" t="n">
+        <v>40.23150622</v>
+      </c>
+      <c r="T100" s="0" t="n">
+        <v>31.0924</v>
+      </c>
+      <c r="U100" s="0" t="n">
+        <v>0.5819</v>
+      </c>
+      <c r="W100" s="0" t="n">
+        <v>12.7652</v>
+      </c>
+      <c r="X100" s="0" t="n">
+        <v>2.4245</v>
+      </c>
+      <c r="Y100" s="0" t="n">
+        <v>18.4906</v>
       </c>
       <c r="AB100" s="0" t="n">
-        <v>-91.165</v>
+        <v>-68.677</v>
       </c>
       <c r="AC100" s="0" t="n">
-        <v>-13.372</v>
+        <v>-9.988</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>-0.003002955</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>-0.015022065</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>0.000546942</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>-0.004406859</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <v>0.733681535</v>
+      </c>
+      <c r="M101" s="0" t="n">
+        <v>0.050678134</v>
+      </c>
+      <c r="N101" s="0" t="n">
+        <v>-0.046811064</v>
+      </c>
+      <c r="O101" s="0" t="n">
+        <v>0.227469347</v>
+      </c>
+      <c r="P101" s="0" t="n">
+        <v>-0.949228025</v>
+      </c>
+      <c r="Q101" s="0" t="n">
+        <v>0.045719201</v>
+      </c>
+      <c r="R101" s="0" t="n">
+        <v>1.923157102</v>
+      </c>
+      <c r="T101" s="0" t="n">
+        <v>1.779603237</v>
+      </c>
+      <c r="W101" s="0" t="n">
+        <v>2.556605766</v>
+      </c>
+      <c r="X101" s="0" t="n">
+        <v>1.595329548</v>
+      </c>
+      <c r="Y101" s="0" t="n">
+        <v>5.863016648</v>
+      </c>
+      <c r="Z101" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB101" s="0" t="n">
+        <v>-86.889</v>
+      </c>
+      <c r="AC101" s="0" t="n">
+        <v>-12.713</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB101" s="0" t="n">
-        <v>-79.702</v>
-      </c>
-      <c r="AC101" s="0" t="n">
-        <v>-11.813</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>0.005325502</v>
-      </c>
-      <c r="I102" s="0" t="n">
-        <v>-0.014964109</v>
-      </c>
-      <c r="J102" s="0" t="n">
-        <v>0.000660561</v>
-      </c>
-      <c r="K102" s="0" t="n">
-        <v>-0.007599487</v>
-      </c>
-      <c r="L102" s="0" t="n">
-        <v>0.659190765</v>
-      </c>
-      <c r="M102" s="0" t="n">
-        <v>0.046483474</v>
-      </c>
-      <c r="N102" s="0" t="n">
-        <v>-0.050560379</v>
-      </c>
-      <c r="O102" s="0" t="n">
-        <v>0.228322849</v>
-      </c>
-      <c r="P102" s="0" t="n">
-        <v>-0.967000136</v>
-      </c>
-      <c r="Q102" s="0" t="n">
-        <v>0.075819377</v>
-      </c>
-      <c r="R102" s="0" t="n">
-        <v>1.820530903</v>
-      </c>
-      <c r="T102" s="0" t="n">
-        <v>1.3819</v>
-      </c>
-      <c r="U102" s="0" t="n">
-        <v>0.5757</v>
-      </c>
-      <c r="W102" s="0" t="n">
-        <v>2.4669</v>
-      </c>
-      <c r="Y102" s="0" t="n">
-        <v>2.4997</v>
+        <v>215</v>
       </c>
       <c r="AB102" s="0" t="n">
-        <v>-88.178</v>
+        <v>-91.165</v>
       </c>
       <c r="AC102" s="0" t="n">
-        <v>-12.949</v>
+        <v>-13.372</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="T103" s="0" t="n">
-        <v>1.3839</v>
-      </c>
-      <c r="W103" s="0" t="n">
-        <v>2.4734</v>
-      </c>
-      <c r="X103" s="0" t="n">
-        <v>2.1762</v>
-      </c>
-      <c r="Y103" s="0" t="n">
-        <v>2.4755</v>
-      </c>
       <c r="AB103" s="0" t="n">
-        <v>-87.574</v>
+        <v>-79.702</v>
       </c>
       <c r="AC103" s="0" t="n">
-        <v>-12.842</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-11.813</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="G104" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>0.005325502</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>-0.014964109</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>0.000660561</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>-0.007599487</v>
+      </c>
+      <c r="L104" s="0" t="n">
+        <v>0.659190765</v>
+      </c>
+      <c r="M104" s="0" t="n">
+        <v>0.046483474</v>
+      </c>
+      <c r="N104" s="0" t="n">
+        <v>-0.050560379</v>
+      </c>
+      <c r="O104" s="0" t="n">
+        <v>0.228322849</v>
+      </c>
+      <c r="P104" s="0" t="n">
+        <v>-0.967000136</v>
+      </c>
+      <c r="Q104" s="0" t="n">
+        <v>0.075819377</v>
+      </c>
+      <c r="R104" s="0" t="n">
+        <v>1.820530903</v>
+      </c>
+      <c r="T104" s="0" t="n">
+        <v>1.3819</v>
+      </c>
+      <c r="U104" s="0" t="n">
+        <v>0.5757</v>
+      </c>
+      <c r="W104" s="0" t="n">
+        <v>2.4669</v>
+      </c>
+      <c r="Y104" s="0" t="n">
+        <v>2.4997</v>
+      </c>
+      <c r="AB104" s="0" t="n">
+        <v>-88.178</v>
+      </c>
+      <c r="AC104" s="0" t="n">
+        <v>-12.949</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>0.082653033</v>
-      </c>
-      <c r="I104" s="0" t="n">
-        <v>-0.004535385</v>
-      </c>
-      <c r="J104" s="0" t="n">
-        <v>0.000748952</v>
-      </c>
-      <c r="K104" s="0" t="n">
-        <v>0.021643975</v>
-      </c>
-      <c r="L104" s="0" t="n">
-        <v>1.278977223</v>
-      </c>
-      <c r="M104" s="0" t="n">
-        <v>0.263231596</v>
-      </c>
-      <c r="N104" s="0" t="n">
-        <v>0.014790138</v>
-      </c>
-      <c r="O104" s="0" t="n">
-        <v>0.327921653</v>
-      </c>
-      <c r="P104" s="0" t="n">
-        <v>-0.858380191</v>
-      </c>
-      <c r="Q104" s="0" t="n">
-        <v>0.560487803</v>
-      </c>
-      <c r="R104" s="0" t="n">
-        <v>1.446107084</v>
-      </c>
-      <c r="T104" s="0" t="n">
-        <v>1.736025708</v>
-      </c>
-      <c r="W104" s="0" t="n">
-        <v>2.568172804</v>
-      </c>
-      <c r="Y104" s="0" t="n">
-        <v>4.574632908</v>
-      </c>
-      <c r="Z104" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB104" s="0" t="n">
-        <v>-78.101</v>
-      </c>
-      <c r="AC104" s="0" t="n">
-        <v>-11.582</v>
-      </c>
-      <c r="AD104" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>220</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G105" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="H105" s="0" t="n">
-        <v>-0.008273062</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>0.002046988</v>
-      </c>
-      <c r="J105" s="0" t="n">
-        <v>-0.000656611</v>
-      </c>
-      <c r="K105" s="0" t="n">
-        <v>-0.004107606</v>
-      </c>
-      <c r="L105" s="0" t="n">
-        <v>-0.028675877</v>
-      </c>
-      <c r="M105" s="0" t="n">
-        <v>0.305076369</v>
-      </c>
-      <c r="N105" s="0" t="n">
-        <v>-0.028291631</v>
-      </c>
-      <c r="O105" s="0" t="n">
-        <v>0.065905561</v>
-      </c>
-      <c r="P105" s="0" t="n">
-        <v>-1.194941614</v>
-      </c>
-      <c r="Q105" s="0" t="n">
-        <v>0.011608069</v>
-      </c>
-      <c r="R105" s="0" t="n">
-        <v>0.412953444</v>
+        <v>48</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="T105" s="0" t="n">
-        <v>1.683677649</v>
+        <v>1.3839</v>
       </c>
       <c r="W105" s="0" t="n">
-        <v>1.866062816</v>
+        <v>2.4734</v>
       </c>
       <c r="X105" s="0" t="n">
-        <v>1.611530471</v>
+        <v>2.1762</v>
       </c>
       <c r="Y105" s="0" t="n">
-        <v>2.994068894</v>
-      </c>
-      <c r="Z105" s="0" t="s">
-        <v>50</v>
+        <v>2.4755</v>
       </c>
       <c r="AB105" s="0" t="n">
-        <v>-85.262</v>
+        <v>-87.574</v>
       </c>
       <c r="AC105" s="0" t="n">
-        <v>-12.252</v>
+        <v>-12.842</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>33</v>
@@ -8022,31 +7996,64 @@
         <v>34</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>76</v>
+        <v>220</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>0.082653033</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>-0.004535385</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <v>0.000748952</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>0.021643975</v>
+      </c>
+      <c r="L106" s="0" t="n">
+        <v>1.278977223</v>
+      </c>
+      <c r="M106" s="0" t="n">
+        <v>0.263231596</v>
+      </c>
+      <c r="N106" s="0" t="n">
+        <v>0.014790138</v>
+      </c>
+      <c r="O106" s="0" t="n">
+        <v>0.327921653</v>
+      </c>
+      <c r="P106" s="0" t="n">
+        <v>-0.858380191</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <v>0.560487803</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <v>1.446107084</v>
       </c>
       <c r="T106" s="0" t="n">
-        <v>2.949201663</v>
+        <v>1.736025708</v>
       </c>
       <c r="W106" s="0" t="n">
-        <v>12.1266859</v>
-      </c>
-      <c r="X106" s="0" t="n">
-        <v>1.574413501</v>
+        <v>2.568172804</v>
       </c>
       <c r="Y106" s="0" t="n">
-        <v>6.914068453</v>
+        <v>4.574632908</v>
       </c>
       <c r="Z106" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB106" s="0" t="n">
-        <v>-89.646</v>
+        <v>-78.101</v>
       </c>
       <c r="AC106" s="0" t="n">
-        <v>-13.065</v>
+        <v>-11.582</v>
       </c>
       <c r="AD106" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8054,46 +8061,73 @@
         <v>223</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>-0.008273062</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>0.002046988</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <v>-0.000656611</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <v>-0.004107606</v>
+      </c>
+      <c r="L107" s="0" t="n">
+        <v>-0.028675877</v>
+      </c>
+      <c r="M107" s="0" t="n">
+        <v>0.305076369</v>
+      </c>
+      <c r="N107" s="0" t="n">
+        <v>-0.028291631</v>
+      </c>
+      <c r="O107" s="0" t="n">
+        <v>0.065905561</v>
+      </c>
+      <c r="P107" s="0" t="n">
+        <v>-1.194941614</v>
+      </c>
+      <c r="Q107" s="0" t="n">
+        <v>0.011608069</v>
+      </c>
+      <c r="R107" s="0" t="n">
+        <v>0.412953444</v>
       </c>
       <c r="T107" s="0" t="n">
-        <v>4.065669151</v>
-      </c>
-      <c r="V107" s="0" t="n">
-        <v>1.557410743</v>
+        <v>1.683677649</v>
       </c>
       <c r="W107" s="0" t="n">
-        <v>45.91070652</v>
+        <v>1.866062816</v>
       </c>
       <c r="X107" s="0" t="n">
-        <v>1.547171644</v>
+        <v>1.611530471</v>
       </c>
       <c r="Y107" s="0" t="n">
-        <v>16.30907021</v>
+        <v>2.994068894</v>
       </c>
       <c r="Z107" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB107" s="0" t="n">
-        <v>-50.801</v>
+        <v>-85.262</v>
       </c>
       <c r="AC107" s="0" t="n">
-        <v>-8.426</v>
-      </c>
-      <c r="AD107" s="0" t="s">
-        <v>224</v>
+        <v>-12.252</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8101,10 +8135,10 @@
         <v>225</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>33</v>
@@ -8113,336 +8147,288 @@
         <v>34</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="H108" s="0" t="n">
-        <v>0.153221701</v>
-      </c>
-      <c r="I108" s="0" t="n">
-        <v>0.014861713</v>
-      </c>
-      <c r="J108" s="0" t="n">
-        <v>-0.000743169</v>
-      </c>
-      <c r="K108" s="0" t="n">
-        <v>0.015333167</v>
-      </c>
-      <c r="L108" s="0" t="n">
-        <v>0.48408665</v>
-      </c>
-      <c r="M108" s="0" t="n">
-        <v>0.713193824</v>
-      </c>
-      <c r="N108" s="0" t="n">
-        <v>-0.017088439</v>
-      </c>
-      <c r="O108" s="0" t="n">
-        <v>0.27432885</v>
-      </c>
-      <c r="P108" s="0" t="n">
-        <v>-1.13668387</v>
-      </c>
-      <c r="Q108" s="0" t="n">
-        <v>0.479294052</v>
-      </c>
-      <c r="R108" s="0" t="n">
-        <v>0.591529624</v>
-      </c>
-      <c r="S108" s="0" t="n">
-        <v>0.032667482</v>
+        <v>82</v>
       </c>
       <c r="T108" s="0" t="n">
-        <v>1.875389224</v>
+        <v>2.949201663</v>
       </c>
       <c r="W108" s="0" t="n">
-        <v>2.371766064</v>
+        <v>12.1266859</v>
+      </c>
+      <c r="X108" s="0" t="n">
+        <v>1.574413501</v>
       </c>
       <c r="Y108" s="0" t="n">
-        <v>7.659225474</v>
+        <v>6.914068453</v>
       </c>
       <c r="Z108" s="0" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB108" s="0" t="n">
+        <v>-89.646</v>
+      </c>
+      <c r="AC108" s="0" t="n">
+        <v>-13.065</v>
+      </c>
+      <c r="AD108" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E109" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G109" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>0.135571269</v>
-      </c>
-      <c r="I109" s="0" t="n">
-        <v>-0.012624602</v>
-      </c>
-      <c r="J109" s="0" t="n">
-        <v>0.000890065</v>
-      </c>
-      <c r="K109" s="0" t="n">
-        <v>-0.006579529</v>
-      </c>
-      <c r="L109" s="0" t="n">
-        <v>3.132389271</v>
-      </c>
-      <c r="M109" s="0" t="n">
-        <v>0.443414038</v>
-      </c>
-      <c r="N109" s="0" t="n">
-        <v>-0.035219578</v>
-      </c>
-      <c r="O109" s="0" t="n">
-        <v>0.933349867</v>
-      </c>
-      <c r="P109" s="0" t="n">
-        <v>0.260326343</v>
-      </c>
-      <c r="Q109" s="0" t="n">
-        <v>0.26257316</v>
-      </c>
-      <c r="R109" s="0" t="n">
-        <v>4.436051514</v>
+      <c r="T109" s="0" t="n">
+        <v>4.065669151</v>
+      </c>
+      <c r="V109" s="0" t="n">
+        <v>1.557410743</v>
+      </c>
+      <c r="W109" s="0" t="n">
+        <v>45.91070652</v>
+      </c>
+      <c r="X109" s="0" t="n">
+        <v>1.547171644</v>
+      </c>
+      <c r="Y109" s="0" t="n">
+        <v>16.30907021</v>
+      </c>
+      <c r="Z109" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB109" s="0" t="n">
+        <v>-50.801</v>
+      </c>
+      <c r="AC109" s="0" t="n">
+        <v>-8.426</v>
+      </c>
+      <c r="AD109" s="0" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>187</v>
+        <v>34</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>-0.020821107</v>
+        <v>0.153221701</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>-0.013363886</v>
+        <v>0.014861713</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>0.000380363</v>
+        <v>-0.000743169</v>
       </c>
       <c r="K110" s="0" t="n">
-        <v>-0.011714672</v>
+        <v>0.015333167</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>-0.139008495</v>
+        <v>0.48408665</v>
       </c>
       <c r="M110" s="0" t="n">
-        <v>-0.008695012</v>
+        <v>0.713193824</v>
       </c>
       <c r="N110" s="0" t="n">
-        <v>-0.048778993</v>
+        <v>-0.017088439</v>
       </c>
       <c r="O110" s="0" t="n">
-        <v>0.044667205</v>
+        <v>0.27432885</v>
       </c>
       <c r="P110" s="0" t="n">
-        <v>-1.235974904</v>
+        <v>-1.13668387</v>
       </c>
       <c r="Q110" s="0" t="n">
-        <v>-0.01388081</v>
+        <v>0.479294052</v>
       </c>
       <c r="R110" s="0" t="n">
-        <v>0.701516215</v>
+        <v>0.591529624</v>
       </c>
       <c r="S110" s="0" t="n">
-        <v>0.04061602</v>
+        <v>0.032667482</v>
       </c>
       <c r="T110" s="0" t="n">
-        <v>1.69918818</v>
-      </c>
-      <c r="U110" s="0" t="n">
-        <v>0.796777766</v>
+        <v>1.875389224</v>
       </c>
       <c r="W110" s="0" t="n">
-        <v>2.439743042</v>
-      </c>
-      <c r="X110" s="0" t="n">
-        <v>1.614174956</v>
+        <v>2.371766064</v>
       </c>
       <c r="Y110" s="0" t="n">
-        <v>2.892481031</v>
+        <v>7.659225474</v>
       </c>
       <c r="Z110" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AB110" s="0" t="n">
-        <v>-69.848</v>
-      </c>
-      <c r="AC110" s="0" t="n">
-        <v>-10.859</v>
-      </c>
-      <c r="AD110" s="0" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F111" s="0" t="s">
-        <v>49</v>
+        <v>85</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>231</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>0.017966364</v>
+        <v>0.135571269</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>-0.000899831</v>
+        <v>-0.012624602</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>7.1504E-005</v>
+        <v>0.000890065</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>-0.008163888</v>
+        <v>-0.006579529</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>0.998054911</v>
+        <v>3.132389271</v>
       </c>
       <c r="M111" s="0" t="n">
-        <v>0.258750119</v>
+        <v>0.443414038</v>
       </c>
       <c r="N111" s="0" t="n">
-        <v>-0.015558634</v>
+        <v>-0.035219578</v>
       </c>
       <c r="O111" s="0" t="n">
-        <v>0.332864429</v>
+        <v>0.933349867</v>
       </c>
       <c r="P111" s="0" t="n">
-        <v>-0.854569356</v>
+        <v>0.260326343</v>
       </c>
       <c r="Q111" s="0" t="n">
-        <v>0.058083936</v>
+        <v>0.26257316</v>
       </c>
       <c r="R111" s="0" t="n">
-        <v>2.694121633</v>
-      </c>
-      <c r="T111" s="0" t="n">
-        <v>1.2492</v>
-      </c>
-      <c r="U111" s="0" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="W111" s="0" t="n">
-        <v>1.8265</v>
-      </c>
-      <c r="Y111" s="0" t="n">
-        <v>3.0346</v>
-      </c>
-      <c r="AB111" s="0" t="n">
-        <v>-88.055</v>
-      </c>
-      <c r="AC111" s="0" t="n">
-        <v>-13.392</v>
+        <v>4.436051514</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>-0.020821107</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>-0.013363886</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <v>0.000380363</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>-0.011714672</v>
+      </c>
+      <c r="L112" s="0" t="n">
+        <v>-0.139008495</v>
+      </c>
+      <c r="M112" s="0" t="n">
+        <v>-0.008695012</v>
+      </c>
+      <c r="N112" s="0" t="n">
+        <v>-0.048778993</v>
+      </c>
+      <c r="O112" s="0" t="n">
+        <v>0.044667205</v>
+      </c>
+      <c r="P112" s="0" t="n">
+        <v>-1.235974904</v>
+      </c>
+      <c r="Q112" s="0" t="n">
+        <v>-0.01388081</v>
+      </c>
+      <c r="R112" s="0" t="n">
+        <v>0.701516215</v>
+      </c>
+      <c r="S112" s="0" t="n">
+        <v>0.04061602</v>
+      </c>
+      <c r="T112" s="0" t="n">
+        <v>1.69918818</v>
+      </c>
+      <c r="U112" s="0" t="n">
+        <v>0.796777766</v>
+      </c>
+      <c r="W112" s="0" t="n">
+        <v>2.439743042</v>
+      </c>
+      <c r="X112" s="0" t="n">
+        <v>1.614174956</v>
+      </c>
+      <c r="Y112" s="0" t="n">
+        <v>2.892481031</v>
+      </c>
+      <c r="Z112" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB112" s="0" t="n">
+        <v>-69.848</v>
+      </c>
+      <c r="AC112" s="0" t="n">
+        <v>-10.859</v>
+      </c>
+      <c r="AD112" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F112" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H112" s="0" t="n">
-        <v>0.012735074</v>
-      </c>
-      <c r="I112" s="0" t="n">
-        <v>-0.001379975</v>
-      </c>
-      <c r="J112" s="0" t="n">
-        <v>-0.001208088</v>
-      </c>
-      <c r="K112" s="0" t="n">
-        <v>-0.008036699</v>
-      </c>
-      <c r="L112" s="0" t="n">
-        <v>1.021814584</v>
-      </c>
-      <c r="M112" s="0" t="n">
-        <v>0.242394853</v>
-      </c>
-      <c r="N112" s="0" t="n">
-        <v>-0.0170764</v>
-      </c>
-      <c r="O112" s="0" t="n">
-        <v>0.366685728</v>
-      </c>
-      <c r="P112" s="0" t="n">
-        <v>-0.796555265</v>
-      </c>
-      <c r="Q112" s="0" t="n">
-        <v>0.057991194</v>
-      </c>
-      <c r="R112" s="0" t="n">
-        <v>2.809760334</v>
-      </c>
-      <c r="T112" s="0" t="n">
-        <v>1.2779</v>
-      </c>
-      <c r="W112" s="0" t="n">
-        <v>1.9689</v>
-      </c>
-      <c r="Y112" s="0" t="n">
-        <v>3.1615</v>
-      </c>
-      <c r="AB112" s="0" t="n">
-        <v>-87.78</v>
-      </c>
-      <c r="AC112" s="0" t="n">
-        <v>-13.383</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>236</v>
       </c>
@@ -8450,10 +8436,10 @@
         <v>40</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E113" s="0" t="s">
         <v>48</v>
@@ -8462,72 +8448,69 @@
         <v>49</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>0.008768052</v>
+        <v>0.017966364</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>-0.001134997</v>
+        <v>-0.000899831</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>-0.001257182</v>
+        <v>7.1504E-005</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>-0.007673665</v>
+        <v>-0.008163888</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>1.096390215</v>
+        <v>0.998054911</v>
       </c>
       <c r="M113" s="0" t="n">
-        <v>0.228079413</v>
+        <v>0.258750119</v>
       </c>
       <c r="N113" s="0" t="n">
-        <v>-0.01959113</v>
+        <v>-0.015558634</v>
       </c>
       <c r="O113" s="0" t="n">
-        <v>0.373492947</v>
+        <v>0.332864429</v>
       </c>
       <c r="P113" s="0" t="n">
-        <v>-0.772736884</v>
+        <v>-0.854569356</v>
       </c>
       <c r="Q113" s="0" t="n">
-        <v>0.047372034</v>
+        <v>0.058083936</v>
       </c>
       <c r="R113" s="0" t="n">
-        <v>2.852341465</v>
+        <v>2.694121633</v>
       </c>
       <c r="T113" s="0" t="n">
-        <v>1.2742</v>
+        <v>1.2492</v>
       </c>
       <c r="U113" s="0" t="n">
-        <v>0.4183</v>
+        <v>0.4203</v>
       </c>
       <c r="W113" s="0" t="n">
-        <v>1.9483</v>
-      </c>
-      <c r="X113" s="0" t="n">
-        <v>1.7209</v>
+        <v>1.8265</v>
       </c>
       <c r="Y113" s="0" t="n">
-        <v>3.2118</v>
+        <v>3.0346</v>
       </c>
       <c r="AB113" s="0" t="n">
-        <v>-86.61</v>
+        <v>-88.055</v>
       </c>
       <c r="AC113" s="0" t="n">
-        <v>-13.449</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-13.392</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>48</v>
@@ -8536,72 +8519,66 @@
         <v>49</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>0.006459387</v>
+        <v>0.012735074</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>0.00895484</v>
+        <v>-0.001379975</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>-0.00126632</v>
+        <v>-0.001208088</v>
       </c>
       <c r="K114" s="0" t="n">
-        <v>-0.007030601</v>
+        <v>-0.008036699</v>
       </c>
       <c r="L114" s="0" t="n">
-        <v>1.057502417</v>
+        <v>1.021814584</v>
       </c>
       <c r="M114" s="0" t="n">
-        <v>0.257427128</v>
+        <v>0.242394853</v>
       </c>
       <c r="N114" s="0" t="n">
-        <v>-0.022872121</v>
+        <v>-0.0170764</v>
       </c>
       <c r="O114" s="0" t="n">
-        <v>0.391463187</v>
+        <v>0.366685728</v>
       </c>
       <c r="P114" s="0" t="n">
-        <v>-0.726475472</v>
+        <v>-0.796555265</v>
       </c>
       <c r="Q114" s="0" t="n">
-        <v>0.037434541</v>
+        <v>0.057991194</v>
       </c>
       <c r="R114" s="0" t="n">
-        <v>2.950587448</v>
+        <v>2.809760334</v>
       </c>
       <c r="T114" s="0" t="n">
-        <v>1.3075</v>
-      </c>
-      <c r="U114" s="0" t="n">
-        <v>0.4219</v>
+        <v>1.2779</v>
       </c>
       <c r="W114" s="0" t="n">
-        <v>2.0406</v>
-      </c>
-      <c r="X114" s="0" t="n">
-        <v>1.6932</v>
+        <v>1.9689</v>
       </c>
       <c r="Y114" s="0" t="n">
-        <v>3.3687</v>
+        <v>3.1615</v>
       </c>
       <c r="AB114" s="0" t="n">
-        <v>-86.264</v>
+        <v>-87.78</v>
       </c>
       <c r="AC114" s="0" t="n">
-        <v>-13.438</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-13.383</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>48</v>
@@ -8610,66 +8587,72 @@
         <v>49</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>0.006459387</v>
+        <v>0.008768052</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>0.00895484</v>
+        <v>-0.001134997</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>-0.00126632</v>
+        <v>-0.001257182</v>
       </c>
       <c r="K115" s="0" t="n">
-        <v>-0.007030601</v>
+        <v>-0.007673665</v>
       </c>
       <c r="L115" s="0" t="n">
-        <v>1.057502417</v>
+        <v>1.096390215</v>
       </c>
       <c r="M115" s="0" t="n">
-        <v>0.257427128</v>
+        <v>0.228079413</v>
       </c>
       <c r="N115" s="0" t="n">
-        <v>-0.022872121</v>
+        <v>-0.01959113</v>
       </c>
       <c r="O115" s="0" t="n">
-        <v>0.391463187</v>
+        <v>0.373492947</v>
       </c>
       <c r="P115" s="0" t="n">
-        <v>-0.726475472</v>
+        <v>-0.772736884</v>
       </c>
       <c r="Q115" s="0" t="n">
-        <v>0.037434541</v>
+        <v>0.047372034</v>
       </c>
       <c r="R115" s="0" t="n">
-        <v>2.950587448</v>
+        <v>2.852341465</v>
       </c>
       <c r="T115" s="0" t="n">
-        <v>1.3232</v>
+        <v>1.2742</v>
+      </c>
+      <c r="U115" s="0" t="n">
+        <v>0.4183</v>
       </c>
       <c r="W115" s="0" t="n">
-        <v>2.021</v>
+        <v>1.9483</v>
+      </c>
+      <c r="X115" s="0" t="n">
+        <v>1.7209</v>
       </c>
       <c r="Y115" s="0" t="n">
-        <v>3.396</v>
+        <v>3.2118</v>
       </c>
       <c r="AB115" s="0" t="n">
-        <v>-86.264</v>
+        <v>-86.61</v>
       </c>
       <c r="AC115" s="0" t="n">
-        <v>-13.438</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-13.449</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>48</v>
@@ -8678,37 +8661,37 @@
         <v>49</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>0.010919397</v>
+        <v>0.006459387</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>0.009923653</v>
+        <v>0.00895484</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>-0.001405038</v>
+        <v>-0.00126632</v>
       </c>
       <c r="K116" s="0" t="n">
-        <v>-0.007688091</v>
+        <v>-0.007030601</v>
       </c>
       <c r="L116" s="0" t="n">
-        <v>1.279718809</v>
+        <v>1.057502417</v>
       </c>
       <c r="M116" s="0" t="n">
-        <v>0.245479163</v>
+        <v>0.257427128</v>
       </c>
       <c r="N116" s="0" t="n">
-        <v>-0.009385169</v>
+        <v>-0.022872121</v>
       </c>
       <c r="O116" s="0" t="n">
-        <v>0.396460512</v>
+        <v>0.391463187</v>
       </c>
       <c r="P116" s="0" t="n">
-        <v>-0.747720014</v>
+        <v>-0.726475472</v>
       </c>
       <c r="Q116" s="0" t="n">
-        <v>0.049405371</v>
+        <v>0.037434541</v>
       </c>
       <c r="R116" s="0" t="n">
-        <v>2.996397878</v>
+        <v>2.950587448</v>
       </c>
       <c r="T116" s="0" t="n">
         <v>1.3075</v>
@@ -8732,18 +8715,18 @@
         <v>-13.438</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E117" s="0" t="s">
         <v>48</v>
@@ -8752,37 +8735,37 @@
         <v>49</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>0.010919397</v>
+        <v>0.006459387</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>0.009923653</v>
+        <v>0.00895484</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>-0.001405038</v>
+        <v>-0.00126632</v>
       </c>
       <c r="K117" s="0" t="n">
-        <v>-0.007688091</v>
+        <v>-0.007030601</v>
       </c>
       <c r="L117" s="0" t="n">
-        <v>1.279718809</v>
+        <v>1.057502417</v>
       </c>
       <c r="M117" s="0" t="n">
-        <v>0.245479163</v>
+        <v>0.257427128</v>
       </c>
       <c r="N117" s="0" t="n">
-        <v>-0.009385169</v>
+        <v>-0.022872121</v>
       </c>
       <c r="O117" s="0" t="n">
-        <v>0.396460512</v>
+        <v>0.391463187</v>
       </c>
       <c r="P117" s="0" t="n">
-        <v>-0.747720014</v>
+        <v>-0.726475472</v>
       </c>
       <c r="Q117" s="0" t="n">
-        <v>0.049405371</v>
+        <v>0.037434541</v>
       </c>
       <c r="R117" s="0" t="n">
-        <v>2.996397878</v>
+        <v>2.950587448</v>
       </c>
       <c r="T117" s="0" t="n">
         <v>1.3232</v>
@@ -8800,18 +8783,18 @@
         <v>-13.438</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>48</v>
@@ -8820,37 +8803,37 @@
         <v>49</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>0.006459387</v>
+        <v>0.010919397</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>0.00895484</v>
+        <v>0.009923653</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>-0.00126632</v>
+        <v>-0.001405038</v>
       </c>
       <c r="K118" s="0" t="n">
-        <v>-0.007030601</v>
+        <v>-0.007688091</v>
       </c>
       <c r="L118" s="0" t="n">
-        <v>1.057502417</v>
+        <v>1.279718809</v>
       </c>
       <c r="M118" s="0" t="n">
-        <v>0.257427128</v>
+        <v>0.245479163</v>
       </c>
       <c r="N118" s="0" t="n">
-        <v>-0.022872121</v>
+        <v>-0.009385169</v>
       </c>
       <c r="O118" s="0" t="n">
-        <v>0.391463187</v>
+        <v>0.396460512</v>
       </c>
       <c r="P118" s="0" t="n">
-        <v>-0.726475472</v>
+        <v>-0.747720014</v>
       </c>
       <c r="Q118" s="0" t="n">
-        <v>0.037434541</v>
+        <v>0.049405371</v>
       </c>
       <c r="R118" s="0" t="n">
-        <v>2.950587448</v>
+        <v>2.996397878</v>
       </c>
       <c r="T118" s="0" t="n">
         <v>1.3075</v>
@@ -8874,18 +8857,18 @@
         <v>-13.438</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>48</v>
@@ -8894,37 +8877,37 @@
         <v>49</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>0.006459387</v>
+        <v>0.010919397</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>0.00895484</v>
+        <v>0.009923653</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>-0.00126632</v>
+        <v>-0.001405038</v>
       </c>
       <c r="K119" s="0" t="n">
-        <v>-0.007030601</v>
+        <v>-0.007688091</v>
       </c>
       <c r="L119" s="0" t="n">
-        <v>1.057502417</v>
+        <v>1.279718809</v>
       </c>
       <c r="M119" s="0" t="n">
-        <v>0.257427128</v>
+        <v>0.245479163</v>
       </c>
       <c r="N119" s="0" t="n">
-        <v>-0.022872121</v>
+        <v>-0.009385169</v>
       </c>
       <c r="O119" s="0" t="n">
-        <v>0.391463187</v>
+        <v>0.396460512</v>
       </c>
       <c r="P119" s="0" t="n">
-        <v>-0.726475472</v>
+        <v>-0.747720014</v>
       </c>
       <c r="Q119" s="0" t="n">
-        <v>0.037434541</v>
+        <v>0.049405371</v>
       </c>
       <c r="R119" s="0" t="n">
-        <v>2.950587448</v>
+        <v>2.996397878</v>
       </c>
       <c r="T119" s="0" t="n">
         <v>1.3232</v>
@@ -8942,18 +8925,18 @@
         <v>-13.438</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>48</v>
@@ -8962,37 +8945,37 @@
         <v>49</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>0.010919397</v>
+        <v>0.006459387</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>0.009923653</v>
+        <v>0.00895484</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>-0.001405038</v>
+        <v>-0.00126632</v>
       </c>
       <c r="K120" s="0" t="n">
-        <v>-0.007688091</v>
+        <v>-0.007030601</v>
       </c>
       <c r="L120" s="0" t="n">
-        <v>1.279718809</v>
+        <v>1.057502417</v>
       </c>
       <c r="M120" s="0" t="n">
-        <v>0.245479163</v>
+        <v>0.257427128</v>
       </c>
       <c r="N120" s="0" t="n">
-        <v>-0.009385169</v>
+        <v>-0.022872121</v>
       </c>
       <c r="O120" s="0" t="n">
-        <v>0.396460512</v>
+        <v>0.391463187</v>
       </c>
       <c r="P120" s="0" t="n">
-        <v>-0.747720014</v>
+        <v>-0.726475472</v>
       </c>
       <c r="Q120" s="0" t="n">
-        <v>0.049405371</v>
+        <v>0.037434541</v>
       </c>
       <c r="R120" s="0" t="n">
-        <v>2.996397878</v>
+        <v>2.950587448</v>
       </c>
       <c r="T120" s="0" t="n">
         <v>1.3075</v>
@@ -9016,18 +8999,18 @@
         <v>-13.438</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>48</v>
@@ -9036,37 +9019,37 @@
         <v>49</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>0.010919397</v>
+        <v>0.006459387</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>0.009923653</v>
+        <v>0.00895484</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>-0.001405038</v>
+        <v>-0.00126632</v>
       </c>
       <c r="K121" s="0" t="n">
-        <v>-0.007688091</v>
+        <v>-0.007030601</v>
       </c>
       <c r="L121" s="0" t="n">
-        <v>1.279718809</v>
+        <v>1.057502417</v>
       </c>
       <c r="M121" s="0" t="n">
-        <v>0.245479163</v>
+        <v>0.257427128</v>
       </c>
       <c r="N121" s="0" t="n">
-        <v>-0.009385169</v>
+        <v>-0.022872121</v>
       </c>
       <c r="O121" s="0" t="n">
-        <v>0.396460512</v>
+        <v>0.391463187</v>
       </c>
       <c r="P121" s="0" t="n">
-        <v>-0.747720014</v>
+        <v>-0.726475472</v>
       </c>
       <c r="Q121" s="0" t="n">
-        <v>0.049405371</v>
+        <v>0.037434541</v>
       </c>
       <c r="R121" s="0" t="n">
-        <v>2.996397878</v>
+        <v>2.950587448</v>
       </c>
       <c r="T121" s="0" t="n">
         <v>1.3232</v>
@@ -9086,16 +9069,16 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>48</v>
@@ -9104,58 +9087,58 @@
         <v>49</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>0.083669189</v>
+        <v>0.010919397</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>-0.00226064</v>
+        <v>0.009923653</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>0.00045717</v>
+        <v>-0.001405038</v>
       </c>
       <c r="K122" s="0" t="n">
-        <v>-0.011512518</v>
+        <v>-0.007688091</v>
       </c>
       <c r="L122" s="0" t="n">
-        <v>1.800713462</v>
+        <v>1.279718809</v>
       </c>
       <c r="M122" s="0" t="n">
-        <v>1.923754303</v>
+        <v>0.245479163</v>
       </c>
       <c r="N122" s="0" t="n">
-        <v>0.00481706</v>
+        <v>-0.009385169</v>
       </c>
       <c r="O122" s="0" t="n">
-        <v>4.965463844</v>
+        <v>0.396460512</v>
       </c>
       <c r="P122" s="0" t="n">
-        <v>11.85698455</v>
+        <v>-0.747720014</v>
       </c>
       <c r="Q122" s="0" t="n">
-        <v>-0.001827759</v>
+        <v>0.049405371</v>
       </c>
       <c r="R122" s="0" t="n">
-        <v>28.6246763</v>
-      </c>
-      <c r="S122" s="0" t="n">
-        <v>0.0168</v>
+        <v>2.996397878</v>
       </c>
       <c r="T122" s="0" t="n">
-        <v>21.4189</v>
+        <v>1.3075</v>
+      </c>
+      <c r="U122" s="0" t="n">
+        <v>0.4219</v>
       </c>
       <c r="W122" s="0" t="n">
-        <v>7.5566</v>
+        <v>2.0406</v>
       </c>
       <c r="X122" s="0" t="n">
-        <v>2.3503</v>
+        <v>1.6932</v>
       </c>
       <c r="Y122" s="0" t="n">
-        <v>12.648</v>
+        <v>3.3687</v>
       </c>
       <c r="AB122" s="0" t="n">
-        <v>-73.063</v>
+        <v>-86.264</v>
       </c>
       <c r="AC122" s="0" t="n">
-        <v>-10.739</v>
+        <v>-13.438</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9163,13 +9146,13 @@
         <v>240</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>48</v>
@@ -9177,32 +9160,56 @@
       <c r="F123" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="S123" s="0" t="n">
-        <v>0.0245</v>
+      <c r="H123" s="0" t="n">
+        <v>0.010919397</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>0.009923653</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>-0.001405038</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <v>-0.007688091</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <v>1.279718809</v>
+      </c>
+      <c r="M123" s="0" t="n">
+        <v>0.245479163</v>
+      </c>
+      <c r="N123" s="0" t="n">
+        <v>-0.009385169</v>
+      </c>
+      <c r="O123" s="0" t="n">
+        <v>0.396460512</v>
+      </c>
+      <c r="P123" s="0" t="n">
+        <v>-0.747720014</v>
+      </c>
+      <c r="Q123" s="0" t="n">
+        <v>0.049405371</v>
+      </c>
+      <c r="R123" s="0" t="n">
+        <v>2.996397878</v>
       </c>
       <c r="T123" s="0" t="n">
-        <v>18.4941</v>
-      </c>
-      <c r="U123" s="0" t="n">
-        <v>0.5759</v>
+        <v>1.3232</v>
       </c>
       <c r="W123" s="0" t="n">
-        <v>7.3462</v>
-      </c>
-      <c r="X123" s="0" t="n">
-        <v>2.3953</v>
+        <v>2.021</v>
       </c>
       <c r="Y123" s="0" t="n">
-        <v>12.1689</v>
+        <v>3.396</v>
       </c>
       <c r="AB123" s="0" t="n">
-        <v>-73.732</v>
+        <v>-86.264</v>
       </c>
       <c r="AC123" s="0" t="n">
-        <v>-10.545</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-13.438</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>241</v>
       </c>
@@ -9213,7 +9220,7 @@
         <v>242</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>48</v>
@@ -9273,7 +9280,7 @@
         <v>-13.355</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>243</v>
       </c>
@@ -9284,7 +9291,7 @@
         <v>242</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>48</v>
@@ -9341,7 +9348,7 @@
         <v>-12.58</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>244</v>
       </c>
@@ -9352,7 +9359,7 @@
         <v>242</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>48</v>
@@ -9412,7 +9419,7 @@
         <v>-12.971</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>245</v>
       </c>
@@ -9447,7 +9454,7 @@
         <v>-12.716</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>247</v>
       </c>
@@ -9458,7 +9465,7 @@
         <v>246</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>48</v>
@@ -9521,7 +9528,7 @@
         <v>-12.662</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>248</v>
       </c>
@@ -9532,7 +9539,7 @@
         <v>249</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>48</v>
@@ -9595,7 +9602,7 @@
         <v>-12.684</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>250</v>
       </c>
@@ -9606,7 +9613,7 @@
         <v>249</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>48</v>
@@ -9669,7 +9676,7 @@
         <v>-11.998</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>251</v>
       </c>
@@ -9743,7 +9750,7 @@
         <v>-12.866</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>253</v>
       </c>
@@ -9784,7 +9791,7 @@
         <v>-12.527</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>254</v>
       </c>
@@ -9855,7 +9862,7 @@
         <v>-12.67</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>256</v>
       </c>
@@ -9929,7 +9936,7 @@
         <v>-12.739</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>257</v>
       </c>
@@ -10000,7 +10007,7 @@
         <v>-12.881</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>258</v>
       </c>
@@ -10138,7 +10145,7 @@
         <v>1.1225</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>264</v>
       </c>
@@ -10207,6 +10214,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B139">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Wade"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10214,6 +10228,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10225,7 +10240,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="B1:B139 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10324,13 +10339,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>33</v>
@@ -10339,10 +10354,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>0.091445162</v>
@@ -10401,13 +10416,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
@@ -10416,10 +10431,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0.09529109</v>
@@ -10472,22 +10487,22 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0.000298482</v>
@@ -10547,27 +10562,27 @@
         <v>-13.668</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>-0.012308703</v>
@@ -10627,18 +10642,18 @@
         <v>-13.668</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>33</v>
@@ -10647,10 +10662,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>-0.002137737</v>
@@ -10707,27 +10722,27 @@
         <v>-11.536</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>-0.023113687</v>
@@ -10777,22 +10792,22 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>-0.007382155</v>
@@ -10852,27 +10867,27 @@
         <v>-15.682</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>-0.007382155</v>
@@ -10932,7 +10947,7 @@
         <v>-12.292</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11286,7 +11301,7 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B1:B139 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11400,7 +11415,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>134</v>
@@ -11469,7 +11484,7 @@
         <v>-12.284</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11638,7 +11653,7 @@
         <v>-13.33</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11848,7 +11863,7 @@
   <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="B1:B139 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11947,19 +11962,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>-0.008248453</v>
@@ -12030,7 +12045,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="T3" s="2" t="n">
         <v>1.2092</v>
@@ -12056,22 +12071,22 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>-0.020821107</v>
@@ -12134,24 +12149,24 @@
         <v>-10.859</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AB5" s="2" t="n">
         <v>-91.165</v>
@@ -12162,19 +12177,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AB6" s="2" t="n">
         <v>-79.702</v>
@@ -12185,13 +12200,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>33</v>
@@ -12200,10 +12215,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0.082653033</v>
@@ -12257,27 +12272,27 @@
         <v>-11.582</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>-0.008273062</v>
@@ -12336,13 +12351,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>33</v>
@@ -12351,7 +12366,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T9" s="2" t="n">
         <v>2.949201663</v>
@@ -12375,18 +12390,18 @@
         <v>-13.065</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>33</v>
@@ -12395,7 +12410,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>4.065669151</v>
@@ -12422,18 +12437,18 @@
         <v>-8.426</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>33</v>
@@ -12442,10 +12457,10 @@
         <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>0.153221701</v>
@@ -12498,22 +12513,22 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>0.135571269</v>
@@ -12551,22 +12566,22 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>-0.022544739</v>
@@ -12637,7 +12652,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>-0.005760092</v>

--- a/data/newrnet-chemistry/RI23_endmemeber_manual_sort.xlsx
+++ b/data/newrnet-chemistry/RI23_endmemeber_manual_sort.xlsx
@@ -947,8 +947,8 @@
   </sheetPr>
   <dimension ref="A1:AD139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="77:77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10240,7 +10240,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="B1:B139 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="77:77 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11301,7 +11301,7 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B1:B139 A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="77:77 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11863,7 +11863,7 @@
   <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="B1:B139 D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="77:77 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/newrnet-chemistry/RI23_endmemeber_manual_sort.xlsx
+++ b/data/newrnet-chemistry/RI23_endmemeber_manual_sort.xlsx
@@ -907,11 +907,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -947,11 +947,11 @@
   </sheetPr>
   <dimension ref="A1:AD139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="77:77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.32"/>
@@ -961,7 +961,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.85"/>
@@ -978,7 +978,7 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -1073,10 +1073,10 @@
       <c r="B2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -1102,10 +1102,10 @@
       <c r="B3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -1125,10 +1125,10 @@
       <c r="B4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -1148,10 +1148,10 @@
       <c r="B5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -1174,10 +1174,10 @@
       <c r="B6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -1245,10 +1245,10 @@
       <c r="B7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="0" t="s">
@@ -1322,10 +1322,10 @@
       <c r="B8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="0" t="s">
@@ -1399,10 +1399,10 @@
       <c r="B9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="0" t="s">
@@ -1440,10 +1440,10 @@
       <c r="B10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="0" t="s">
@@ -1520,10 +1520,10 @@
       <c r="B11" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="0" t="s">
@@ -1564,10 +1564,10 @@
       <c r="B12" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="0" t="s">
@@ -1644,10 +1644,10 @@
       <c r="B13" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="0" t="s">
@@ -1718,10 +1718,10 @@
       <c r="B14" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="0" t="s">
@@ -1789,10 +1789,10 @@
       <c r="B15" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="0" t="s">
@@ -1860,10 +1860,10 @@
       <c r="B16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="0" t="s">
@@ -1934,10 +1934,10 @@
       <c r="B17" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="0" t="s">
@@ -1993,10 +1993,10 @@
       <c r="B18" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E18" s="0" t="s">
@@ -2034,10 +2034,10 @@
       <c r="B19" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="0" t="s">
@@ -2111,10 +2111,10 @@
       <c r="B20" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="0" t="s">
@@ -2182,10 +2182,10 @@
       <c r="B21" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="0" t="s">
@@ -2262,10 +2262,10 @@
       <c r="B22" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="0" t="s">
@@ -2342,10 +2342,10 @@
       <c r="B23" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="0" t="s">
@@ -2422,10 +2422,10 @@
       <c r="B24" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="0" t="s">
@@ -2487,10 +2487,10 @@
       <c r="B25" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="0" t="s">
@@ -2567,10 +2567,10 @@
       <c r="B26" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="0" t="s">
@@ -2647,10 +2647,10 @@
       <c r="B27" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="0" t="s">
@@ -2721,10 +2721,10 @@
       <c r="B28" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="0" t="s">
@@ -2765,10 +2765,10 @@
       <c r="B29" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="0" t="s">
@@ -2842,10 +2842,10 @@
       <c r="B30" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E30" s="0" t="s">
@@ -2919,10 +2919,10 @@
       <c r="B31" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E31" s="0" t="s">
@@ -2990,10 +2990,10 @@
       <c r="B32" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E32" s="0" t="s">
@@ -3061,10 +3061,10 @@
       <c r="B33" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E33" s="0" t="s">
@@ -3132,10 +3132,10 @@
       <c r="B34" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E34" s="0" t="s">
@@ -3203,10 +3203,10 @@
       <c r="B35" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E35" s="0" t="s">
@@ -3274,10 +3274,10 @@
       <c r="B36" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E36" s="0" t="s">
@@ -3345,10 +3345,10 @@
       <c r="B37" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E37" s="0" t="s">
@@ -3416,10 +3416,10 @@
       <c r="B38" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E38" s="0" t="s">
@@ -3487,10 +3487,10 @@
       <c r="B39" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E39" s="0" t="s">
@@ -3555,10 +3555,10 @@
       <c r="B40" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E40" s="0" t="s">
@@ -3623,10 +3623,10 @@
       <c r="B41" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="0" t="s">
@@ -3694,10 +3694,10 @@
       <c r="B42" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E42" s="0" t="s">
@@ -3765,10 +3765,10 @@
       <c r="B43" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E43" s="0" t="s">
@@ -3839,10 +3839,10 @@
       <c r="B44" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E44" s="0" t="s">
@@ -3862,10 +3862,10 @@
       <c r="B45" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E45" s="0" t="s">
@@ -3885,10 +3885,10 @@
       <c r="B46" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E46" s="0" t="s">
@@ -3962,10 +3962,10 @@
       <c r="B47" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E47" s="0" t="s">
@@ -4027,10 +4027,10 @@
       <c r="B48" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="0" t="s">
@@ -4116,10 +4116,10 @@
       <c r="B49" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E49" s="0" t="s">
@@ -4205,10 +4205,10 @@
       <c r="B50" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E50" s="0" t="s">
@@ -4285,10 +4285,10 @@
       <c r="B51" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E51" s="0" t="s">
@@ -4359,10 +4359,10 @@
       <c r="B52" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E52" s="0" t="s">
@@ -4430,10 +4430,10 @@
       <c r="B53" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E53" s="0" t="s">
@@ -4504,10 +4504,10 @@
       <c r="B54" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E54" s="0" t="s">
@@ -4578,10 +4578,10 @@
       <c r="B55" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E55" s="0" t="s">
@@ -4649,10 +4649,10 @@
       <c r="B56" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E56" s="0" t="s">
@@ -4723,10 +4723,10 @@
       <c r="B57" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E57" s="0" t="s">
@@ -4797,10 +4797,10 @@
       <c r="B58" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E58" s="0" t="s">
@@ -4871,10 +4871,10 @@
       <c r="B59" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E59" s="0" t="s">
@@ -4945,10 +4945,10 @@
       <c r="B60" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E60" s="0" t="s">
@@ -5022,10 +5022,10 @@
       <c r="B61" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E61" s="0" t="s">
@@ -5087,10 +5087,10 @@
       <c r="B62" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E62" s="0" t="s">
@@ -5155,10 +5155,10 @@
       <c r="B63" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E63" s="0" t="s">
@@ -5232,10 +5232,10 @@
       <c r="B64" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E64" s="0" t="s">
@@ -5306,10 +5306,10 @@
       <c r="B65" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E65" s="0" t="s">
@@ -5380,10 +5380,10 @@
       <c r="B66" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E66" s="0" t="s">
@@ -5451,10 +5451,10 @@
       <c r="B67" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E67" s="0" t="s">
@@ -5525,10 +5525,10 @@
       <c r="B68" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E68" s="0" t="s">
@@ -5593,10 +5593,10 @@
       <c r="B69" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E69" s="0" t="s">
@@ -5667,10 +5667,10 @@
       <c r="B70" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E70" s="0" t="s">
@@ -5744,10 +5744,10 @@
       <c r="B71" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E71" s="0" t="s">
@@ -5821,10 +5821,10 @@
       <c r="B72" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="0" t="s">
@@ -5898,10 +5898,10 @@
       <c r="B73" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E73" s="0" t="s">
@@ -5975,10 +5975,10 @@
       <c r="B74" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E74" s="0" t="s">
@@ -6043,10 +6043,10 @@
       <c r="B75" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E75" s="0" t="s">
@@ -6069,10 +6069,10 @@
       <c r="B76" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E76" s="0" t="s">
@@ -6140,10 +6140,10 @@
       <c r="B77" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E77" s="0" t="s">
@@ -6178,10 +6178,10 @@
       <c r="B78" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E78" s="0" t="s">
@@ -6246,10 +6246,10 @@
       <c r="B79" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E79" s="0" t="s">
@@ -6323,10 +6323,10 @@
       <c r="B80" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E80" s="0" t="s">
@@ -6394,10 +6394,10 @@
       <c r="B81" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E81" s="0" t="s">
@@ -6468,10 +6468,10 @@
       <c r="B82" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E82" s="0" t="s">
@@ -6542,10 +6542,10 @@
       <c r="B83" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E83" s="0" t="s">
@@ -6616,10 +6616,10 @@
       <c r="B84" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E84" s="0" t="s">
@@ -6693,10 +6693,10 @@
       <c r="B85" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E85" s="0" t="s">
@@ -6767,10 +6767,10 @@
       <c r="B86" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E86" s="0" t="s">
@@ -6808,10 +6808,10 @@
       <c r="B87" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E87" s="0" t="s">
@@ -6882,10 +6882,10 @@
       <c r="B88" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E88" s="0" t="s">
@@ -6926,10 +6926,10 @@
       <c r="B89" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E89" s="0" t="s">
@@ -7000,10 +7000,10 @@
       <c r="B90" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E90" s="0" t="s">
@@ -7074,10 +7074,10 @@
       <c r="B91" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E91" s="0" t="s">
@@ -7148,10 +7148,10 @@
       <c r="B92" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E92" s="0" t="s">
@@ -7189,10 +7189,10 @@
       <c r="B93" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E93" s="0" t="s">
@@ -7260,10 +7260,10 @@
       <c r="B94" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E94" s="0" t="s">
@@ -7328,10 +7328,10 @@
       <c r="B95" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E95" s="0" t="s">
@@ -7402,10 +7402,10 @@
       <c r="B96" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E96" s="0" t="s">
@@ -7473,10 +7473,10 @@
       <c r="B97" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E97" s="0" t="s">
@@ -7541,10 +7541,10 @@
       <c r="B98" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E98" s="0" t="s">
@@ -7612,10 +7612,10 @@
       <c r="B99" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E99" s="0" t="s">
@@ -7683,10 +7683,10 @@
       <c r="B100" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E100" s="0" t="s">
@@ -7757,10 +7757,10 @@
       <c r="B101" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E101" s="0" t="s">
@@ -7831,10 +7831,10 @@
       <c r="B102" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E102" s="0" t="s">
@@ -7854,10 +7854,10 @@
       <c r="B103" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E103" s="0" t="s">
@@ -7877,10 +7877,10 @@
       <c r="B104" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E104" s="0" t="s">
@@ -7948,10 +7948,10 @@
       <c r="B105" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E105" s="0" t="s">
@@ -7986,10 +7986,10 @@
       <c r="B106" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E106" s="0" t="s">
@@ -8063,10 +8063,10 @@
       <c r="B107" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E107" s="0" t="s">
@@ -8137,10 +8137,10 @@
       <c r="B108" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E108" s="0" t="s">
@@ -8181,10 +8181,10 @@
       <c r="B109" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E109" s="0" t="s">
@@ -8228,17 +8228,17 @@
       <c r="B110" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>34</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>229</v>
@@ -8299,10 +8299,10 @@
       <c r="B111" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E111" s="0" t="s">
@@ -8352,10 +8352,10 @@
       <c r="B112" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E112" s="0" t="s">
@@ -8435,10 +8435,10 @@
       <c r="B113" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E113" s="0" t="s">
@@ -8506,10 +8506,10 @@
       <c r="B114" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E114" s="0" t="s">
@@ -8574,10 +8574,10 @@
       <c r="B115" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E115" s="0" t="s">
@@ -8648,10 +8648,10 @@
       <c r="B116" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E116" s="0" t="s">
@@ -8722,10 +8722,10 @@
       <c r="B117" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E117" s="0" t="s">
@@ -8790,10 +8790,10 @@
       <c r="B118" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E118" s="0" t="s">
@@ -8864,10 +8864,10 @@
       <c r="B119" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E119" s="0" t="s">
@@ -8932,10 +8932,10 @@
       <c r="B120" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E120" s="0" t="s">
@@ -9006,10 +9006,10 @@
       <c r="B121" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E121" s="0" t="s">
@@ -9074,10 +9074,10 @@
       <c r="B122" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E122" s="0" t="s">
@@ -9148,10 +9148,10 @@
       <c r="B123" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E123" s="0" t="s">
@@ -9216,10 +9216,10 @@
       <c r="B124" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E124" s="0" t="s">
@@ -9287,10 +9287,10 @@
       <c r="B125" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E125" s="0" t="s">
@@ -9355,10 +9355,10 @@
       <c r="B126" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E126" s="0" t="s">
@@ -9426,10 +9426,10 @@
       <c r="B127" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E127" s="0" t="s">
@@ -9461,10 +9461,10 @@
       <c r="B128" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E128" s="0" t="s">
@@ -9535,10 +9535,10 @@
       <c r="B129" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E129" s="0" t="s">
@@ -9609,10 +9609,10 @@
       <c r="B130" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E130" s="0" t="s">
@@ -9683,10 +9683,10 @@
       <c r="B131" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E131" s="0" t="s">
@@ -9757,10 +9757,10 @@
       <c r="B132" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E132" s="0" t="s">
@@ -9798,10 +9798,10 @@
       <c r="B133" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E133" s="0" t="s">
@@ -9869,10 +9869,10 @@
       <c r="B134" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E134" s="0" t="s">
@@ -9943,10 +9943,10 @@
       <c r="B135" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E135" s="0" t="s">
@@ -10014,10 +10014,10 @@
       <c r="B136" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>259</v>
       </c>
       <c r="E136" s="0" t="s">
@@ -10240,1045 +10240,1045 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="77:77 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.091445162</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <v>0.005409173</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="1" t="n">
         <v>0.00021518</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>0.01622452</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="1" t="n">
         <v>0.429856652</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="1" t="n">
         <v>0.380634415</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="1" t="n">
         <v>-0.03678504</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="1" t="n">
         <v>0.396151045</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="1" t="n">
         <v>-1.016981079</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="1" t="n">
         <v>0.38854617</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="1" t="n">
         <v>0.577446065</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="1" t="n">
         <v>1.923457692</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="1" t="n">
         <v>4.33844694</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="1" t="n">
         <v>1.589903809</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="1" t="n">
         <v>2.869524728</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>-93.641</v>
       </c>
-      <c r="AC2" s="2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>-13.233</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.09529109</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="1" t="n">
         <v>9.6409E-005</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="1" t="n">
         <v>-0.000284104</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <v>-0.003846345</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="1" t="n">
         <v>1.878128524</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="1" t="n">
         <v>0.59333239</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="1" t="n">
         <v>-0.016290333</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="1" t="n">
         <v>0.753155928</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="1" t="n">
         <v>0.240985995</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="1" t="n">
         <v>0.23388279</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="1" t="n">
         <v>3.508331025</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="1" t="n">
         <v>3.04384406</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="1" t="n">
         <v>9.087003229</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="1" t="n">
         <v>1.603273102</v>
       </c>
-      <c r="Y3" s="2" t="n">
+      <c r="Y3" s="1" t="n">
         <v>6.460805047</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.000298482</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="1" t="n">
         <v>-0.002068926</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.000646314</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>0.004475379</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="1" t="n">
         <v>6.780331804</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="1" t="n">
         <v>0.394923806</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="1" t="n">
         <v>0.042204473</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="1" t="n">
         <v>4.262023065</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="1" t="n">
         <v>2.591937815</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="1" t="n">
         <v>-0.010027985</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="1" t="n">
         <v>29.03969809</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="1" t="n">
         <v>0.057106365</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="1" t="n">
         <v>6.380104084</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="1" t="n">
         <v>0.811890334</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="1" t="n">
         <v>4.96921924</v>
       </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Y4" s="1" t="n">
         <v>5.218622354</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AB4" s="1" t="n">
         <v>-90.225</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AC4" s="1" t="n">
         <v>-13.668</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="1" t="n">
         <v>-0.012308703</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="1" t="n">
         <v>-0.002999804</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="1" t="n">
         <v>0.000537012</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <v>-0.005347326</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="1" t="n">
         <v>1.198587287</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="1" t="n">
         <v>1.049475625</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="1" t="n">
         <v>0.0024883</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="1" t="n">
         <v>2.011598779</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="1" t="n">
         <v>11.69639596</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="1" t="n">
         <v>0.001544063</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" s="1" t="n">
         <v>7.187665599</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="S5" s="1" t="n">
         <v>0.057106365</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="1" t="n">
         <v>6.380104084</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="1" t="n">
         <v>0.811890334</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="1" t="n">
         <v>4.96921924</v>
       </c>
-      <c r="Y5" s="2" t="n">
+      <c r="Y5" s="1" t="n">
         <v>5.218622354</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" s="2" t="n">
+      <c r="AB5" s="1" t="n">
         <v>-90.225</v>
       </c>
-      <c r="AC5" s="2" t="n">
+      <c r="AC5" s="1" t="n">
         <v>-13.668</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="1" t="n">
         <v>-0.002137737</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="1" t="n">
         <v>-0.017859021</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="1" t="n">
         <v>0.002659136</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="1" t="n">
         <v>-0.007235935</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="1" t="n">
         <v>4.330232872</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="1" t="n">
         <v>0.274426664</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N6" s="1" t="n">
         <v>0.014075412</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="1" t="n">
         <v>3.549444341</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="1" t="n">
         <v>1.993341772</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="1" t="n">
         <v>-0.021851568</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="1" t="n">
         <v>26.67682151</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="1" t="n">
         <v>5.625607653</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="1" t="n">
         <v>65.63708637</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="1" t="n">
         <v>1.535731233</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Y6" s="1" t="n">
         <v>17.22829595</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="Z6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AB6" s="1" t="n">
         <v>-79.175</v>
       </c>
-      <c r="AC6" s="2" t="n">
+      <c r="AC6" s="1" t="n">
         <v>-11.536</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AD6" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="1" t="n">
         <v>-0.023113687</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="1" t="n">
         <v>-0.015549119</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="1" t="n">
         <v>-0.000157782</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="1" t="n">
         <v>0.00247053</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="1" t="n">
         <v>-0.148588935</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="1" t="n">
         <v>-0.030691816</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="N7" s="1" t="n">
         <v>-0.050474293</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="1" t="n">
         <v>0.010751893</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="1" t="n">
         <v>-1.13914081</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="1" t="n">
         <v>-0.013698645</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" s="1" t="n">
         <v>0.111409852</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="1" t="n">
         <v>1.7332</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="1" t="n">
         <v>2.5428</v>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="Y7" s="1" t="n">
         <v>3.4481</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="1" t="n">
         <v>-0.007382155</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="1" t="n">
         <v>0.002961813</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="1" t="n">
         <v>0.000567562</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="1" t="n">
         <v>-0.001676279</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="1" t="n">
         <v>0.18544433</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="1" t="n">
         <v>0.483999523</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="N8" s="1" t="n">
         <v>-0.016724087</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="1" t="n">
         <v>0.210295175</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="1" t="n">
         <v>-0.778613816</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="1" t="n">
         <v>0.017610823</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="1" t="n">
         <v>0.764609235</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="1" t="n">
         <v>1.822968034</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="1" t="n">
         <v>0.80210356</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="1" t="n">
         <v>2.45898375</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="X8" s="1" t="n">
         <v>1.597084061</v>
       </c>
-      <c r="Y8" s="2" t="n">
+      <c r="Y8" s="1" t="n">
         <v>3.54367992</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="Z8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AB8" s="1" t="n">
         <v>-109.383</v>
       </c>
-      <c r="AC8" s="2" t="n">
+      <c r="AC8" s="1" t="n">
         <v>-15.682</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AD8" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="1" t="n">
         <v>-0.007382155</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="1" t="n">
         <v>0.002961813</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="1" t="n">
         <v>0.000567562</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="1" t="n">
         <v>-0.001676279</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="1" t="n">
         <v>0.18544433</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="M9" s="1" t="n">
         <v>0.483999523</v>
       </c>
-      <c r="N9" s="2" t="n">
+      <c r="N9" s="1" t="n">
         <v>-0.016724087</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="1" t="n">
         <v>0.210295175</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="1" t="n">
         <v>-0.778613816</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" s="1" t="n">
         <v>0.017610823</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="R9" s="1" t="n">
         <v>0.764609235</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="1" t="n">
         <v>1.822968034</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="1" t="n">
         <v>0.80210356</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="1" t="n">
         <v>2.45898375</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="X9" s="1" t="n">
         <v>1.597084061</v>
       </c>
-      <c r="Y9" s="2" t="n">
+      <c r="Y9" s="1" t="n">
         <v>3.54367992</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB9" s="2" t="n">
+      <c r="AB9" s="1" t="n">
         <v>-85.767</v>
       </c>
-      <c r="AC9" s="2" t="n">
+      <c r="AC9" s="1" t="n">
         <v>-12.292</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AD9" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AB10" s="2" t="n">
+      <c r="AB10" s="1" t="n">
         <v>-94.197</v>
       </c>
-      <c r="AC10" s="2" t="n">
+      <c r="AC10" s="1" t="n">
         <v>-13.792</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB11" s="2" t="n">
+      <c r="AB11" s="1" t="n">
         <v>-66.275</v>
       </c>
-      <c r="AC11" s="2" t="n">
+      <c r="AC11" s="1" t="n">
         <v>-9.682</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" s="2" t="n">
+      <c r="AB12" s="1" t="n">
         <v>-76.707</v>
       </c>
-      <c r="AC12" s="2" t="n">
+      <c r="AC12" s="1" t="n">
         <v>-11.481</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB13" s="2" t="n">
+      <c r="AB13" s="1" t="n">
         <v>-65.565</v>
       </c>
-      <c r="AC13" s="2" t="n">
+      <c r="AC13" s="1" t="n">
         <v>-9.298</v>
       </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AD13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="1" t="n">
         <v>-0.017935714</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="1" t="n">
         <v>0.045289908</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="1" t="n">
         <v>0.035849962</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="1" t="n">
         <v>0.029241819</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="1" t="n">
         <v>7.648743775</v>
       </c>
-      <c r="M14" s="2" t="n">
+      <c r="M14" s="1" t="n">
         <v>4.438201407</v>
       </c>
-      <c r="N14" s="2" t="n">
+      <c r="N14" s="1" t="n">
         <v>0.354392502</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="1" t="n">
         <v>26.4284451</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="1" t="n">
         <v>21.02279844</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="Q14" s="1" t="n">
         <v>-0.131898869</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="R14" s="1" t="n">
         <v>105.9045741</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="1" t="n">
         <v>0.015458651</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="1" t="n">
         <v>60.24839626</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="1" t="n">
         <v>0.857020045</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="1" t="n">
         <v>1.605056166</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="1" t="n">
         <v>3.983550327</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="X14" s="1" t="n">
         <v>1.58724521</v>
       </c>
-      <c r="Y14" s="2" t="n">
+      <c r="Y14" s="1" t="n">
         <v>83.82824622</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="Z14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB14" s="2" t="n">
+      <c r="AB14" s="1" t="n">
         <v>-72.633</v>
       </c>
-      <c r="AC14" s="2" t="n">
+      <c r="AC14" s="1" t="n">
         <v>-10.806</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AD14" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="1" t="n">
         <v>-0.006055875</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="1" t="n">
         <v>-0.003026873</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="1" t="n">
         <v>-0.001228727</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="1" t="n">
         <v>-0.005499911</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L15" s="1" t="n">
         <v>1.689151505</v>
       </c>
-      <c r="M15" s="2" t="n">
+      <c r="M15" s="1" t="n">
         <v>0.181631256</v>
       </c>
-      <c r="N15" s="2" t="n">
+      <c r="N15" s="1" t="n">
         <v>-0.01777371</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="O15" s="1" t="n">
         <v>0.831397948</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="1" t="n">
         <v>-0.548253279</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="Q15" s="1" t="n">
         <v>0.015540279</v>
       </c>
-      <c r="R15" s="2" t="n">
+      <c r="R15" s="1" t="n">
         <v>5.788055452</v>
       </c>
-      <c r="AB15" s="2" t="n">
+      <c r="AB15" s="1" t="n">
         <v>-72.071</v>
       </c>
-      <c r="AC15" s="2" t="n">
+      <c r="AC15" s="1" t="n">
         <v>-11.116</v>
       </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AD15" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="1" t="n">
         <v>-0.008999159</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="1" t="n">
         <v>-0.003347686</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="1" t="n">
         <v>-0.000665278</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="1" t="n">
         <v>-0.000761201</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="1" t="n">
         <v>1.883644279</v>
       </c>
-      <c r="M16" s="2" t="n">
+      <c r="M16" s="1" t="n">
         <v>0.28598758</v>
       </c>
-      <c r="N16" s="2" t="n">
+      <c r="N16" s="1" t="n">
         <v>-0.019510879</v>
       </c>
-      <c r="O16" s="2" t="n">
+      <c r="O16" s="1" t="n">
         <v>0.425312813</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="1" t="n">
         <v>-0.282933665</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="Q16" s="1" t="n">
         <v>0.00428736</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="R16" s="1" t="n">
         <v>6.847131002</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="1" t="n">
         <v>1.752880691</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="1" t="n">
         <v>1.717066079</v>
       </c>
-      <c r="Y16" s="2" t="n">
+      <c r="Y16" s="1" t="n">
         <v>10.92170103</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="Z16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB16" s="2" t="n">
+      <c r="AB16" s="1" t="n">
         <v>-76.119</v>
       </c>
-      <c r="AC16" s="2" t="n">
+      <c r="AC16" s="1" t="n">
         <v>-11.57</v>
       </c>
-      <c r="AD16" s="2" t="s">
+      <c r="AD16" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11301,546 +11301,546 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="77:77 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.001259766</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <v>-0.003616</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="1" t="n">
         <v>0.002715958</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>0.070260979</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="1" t="n">
         <v>5.670058776</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="1" t="n">
         <v>0.398317765</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="1" t="n">
         <v>0.053965725</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="1" t="n">
         <v>3.957421357</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="1" t="n">
         <v>2.429970389</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="1" t="n">
         <v>-0.003272506</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="1" t="n">
         <v>28.61340414</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="1" t="n">
         <v>0.180018148</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="1" t="n">
         <v>5.501723609</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="1" t="n">
         <v>0.790967663</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="1" t="n">
         <v>1.560382427</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="1" t="n">
         <v>54.19291003</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="1" t="n">
         <v>1.54591444</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="1" t="n">
         <v>20.19954881</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>-81.472</v>
       </c>
-      <c r="AC2" s="2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>-12.284</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="1" t="n">
         <v>-0.017935714</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.045289908</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="1" t="n">
         <v>0.035849962</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <v>0.029241819</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="1" t="n">
         <v>7.648743775</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="1" t="n">
         <v>4.438201407</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="1" t="n">
         <v>0.354392502</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="1" t="n">
         <v>26.4284451</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="1" t="n">
         <v>21.02279844</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="1" t="n">
         <v>-0.131898869</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="1" t="n">
         <v>105.9045741</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="S3" s="1" t="n">
         <v>0.015458651</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="1" t="n">
         <v>60.24839626</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="1" t="n">
         <v>0.857020045</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="1" t="n">
         <v>1.605056166</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="1" t="n">
         <v>3.983550327</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="1" t="n">
         <v>1.58724521</v>
       </c>
-      <c r="Y3" s="2" t="n">
+      <c r="Y3" s="1" t="n">
         <v>83.82824622</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="2" t="n">
+      <c r="AB3" s="1" t="n">
         <v>-72.633</v>
       </c>
-      <c r="AC3" s="2" t="n">
+      <c r="AC3" s="1" t="n">
         <v>-10.806</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.10096043</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="1" t="n">
         <v>0.00522485</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.001129239</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>0.108481069</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="1" t="n">
         <v>0.60254712</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="1" t="n">
         <v>0.49268935</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="1" t="n">
         <v>-0.046166885</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="1" t="n">
         <v>0.334881921</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="1" t="n">
         <v>-1.21894769</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="1" t="n">
         <v>0.415918292</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="1" t="n">
         <v>0.536311389</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="1" t="n">
         <v>1.905036884</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="1" t="n">
         <v>3.712501258</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="1" t="n">
         <v>1.597330099</v>
       </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Y4" s="1" t="n">
         <v>4.732060342</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AB4" s="1" t="n">
         <v>-89.934</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AC4" s="1" t="n">
         <v>-13.33</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="1" t="n">
         <v>-0.006055875</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="1" t="n">
         <v>-0.003026873</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="1" t="n">
         <v>-0.001228727</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <v>-0.005499911</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="1" t="n">
         <v>1.689151505</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="1" t="n">
         <v>0.181631256</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="1" t="n">
         <v>-0.01777371</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="1" t="n">
         <v>0.831397948</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="1" t="n">
         <v>-0.548253279</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="1" t="n">
         <v>0.015540279</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" s="1" t="n">
         <v>5.788055452</v>
       </c>
-      <c r="AB5" s="2" t="n">
+      <c r="AB5" s="1" t="n">
         <v>-72.071</v>
       </c>
-      <c r="AC5" s="2" t="n">
+      <c r="AC5" s="1" t="n">
         <v>-11.116</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="1" t="n">
         <v>-0.008999159</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="1" t="n">
         <v>-0.003347686</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="1" t="n">
         <v>-0.000665278</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="1" t="n">
         <v>-0.000761201</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="1" t="n">
         <v>1.883644279</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="1" t="n">
         <v>0.28598758</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N6" s="1" t="n">
         <v>-0.019510879</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="1" t="n">
         <v>0.425312813</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="1" t="n">
         <v>-0.282933665</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="1" t="n">
         <v>0.00428736</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="1" t="n">
         <v>6.847131002</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="1" t="n">
         <v>1.752880691</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="1" t="n">
         <v>1.717066079</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Y6" s="1" t="n">
         <v>10.92170103</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="Z6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AB6" s="1" t="n">
         <v>-76.119</v>
       </c>
-      <c r="AC6" s="2" t="n">
+      <c r="AC6" s="1" t="n">
         <v>-11.57</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AD6" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" s="2" t="n">
+      <c r="AB7" s="1" t="n">
         <v>-66.275</v>
       </c>
-      <c r="AC7" s="2" t="n">
+      <c r="AC7" s="1" t="n">
         <v>-9.682</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AB8" s="1" t="n">
         <v>-76.707</v>
       </c>
-      <c r="AC8" s="2" t="n">
+      <c r="AC8" s="1" t="n">
         <v>-11.481</v>
       </c>
     </row>
@@ -11863,1126 +11863,1126 @@
   <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="77:77 D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="1" t="n">
         <v>-0.008248453</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <v>0.002126952</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="1" t="n">
         <v>-0.000754594</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>-0.003791454</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="1" t="n">
         <v>0.185059359</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="1" t="n">
         <v>0.353835338</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="1" t="n">
         <v>-0.020866083</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="1" t="n">
         <v>0.132893103</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="1" t="n">
         <v>-1.12178083</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="1" t="n">
         <v>0.011761921</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="1" t="n">
         <v>0.566001164</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="1" t="n">
         <v>1.3179</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="1" t="n">
         <v>0.5913</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="1" t="n">
         <v>1.3875</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="1" t="n">
         <v>2.2004</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="1" t="n">
         <v>1.0012</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>-89.353</v>
       </c>
-      <c r="AC2" s="2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>-12.731</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="1" t="n">
         <v>1.2092</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="1" t="n">
         <v>0.4249</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="1" t="n">
         <v>2.03</v>
       </c>
-      <c r="Y3" s="2" t="n">
+      <c r="Y3" s="1" t="n">
         <v>1.3209</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" s="2" t="n">
+      <c r="AB3" s="1" t="n">
         <v>-95.26</v>
       </c>
-      <c r="AC3" s="2" t="n">
+      <c r="AC3" s="1" t="n">
         <v>-14.233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="1" t="n">
         <v>-0.020821107</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="1" t="n">
         <v>-0.013363886</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.000380363</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>-0.011714672</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="1" t="n">
         <v>-0.139008495</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="1" t="n">
         <v>-0.008695012</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="1" t="n">
         <v>-0.048778993</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="1" t="n">
         <v>0.044667205</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="1" t="n">
         <v>-1.235974904</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="1" t="n">
         <v>-0.01388081</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="1" t="n">
         <v>0.701516215</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="1" t="n">
         <v>0.04061602</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="1" t="n">
         <v>1.69918818</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="1" t="n">
         <v>0.796777766</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="1" t="n">
         <v>2.439743042</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="1" t="n">
         <v>1.614174956</v>
       </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Y4" s="1" t="n">
         <v>2.892481031</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AB4" s="1" t="n">
         <v>-69.848</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AC4" s="1" t="n">
         <v>-10.859</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AB5" s="2" t="n">
+      <c r="AB5" s="1" t="n">
         <v>-91.165</v>
       </c>
-      <c r="AC5" s="2" t="n">
+      <c r="AC5" s="1" t="n">
         <v>-13.372</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AB6" s="1" t="n">
         <v>-79.702</v>
       </c>
-      <c r="AC6" s="2" t="n">
+      <c r="AC6" s="1" t="n">
         <v>-11.813</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.082653033</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="1" t="n">
         <v>-0.004535385</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="1" t="n">
         <v>0.000748952</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="1" t="n">
         <v>0.021643975</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="1" t="n">
         <v>1.278977223</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="1" t="n">
         <v>0.263231596</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="N7" s="1" t="n">
         <v>0.014790138</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="1" t="n">
         <v>0.327921653</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="1" t="n">
         <v>-0.858380191</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="1" t="n">
         <v>0.560487803</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" s="1" t="n">
         <v>1.446107084</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="1" t="n">
         <v>1.736025708</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="1" t="n">
         <v>2.568172804</v>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="Y7" s="1" t="n">
         <v>4.574632908</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB7" s="2" t="n">
+      <c r="AB7" s="1" t="n">
         <v>-78.101</v>
       </c>
-      <c r="AC7" s="2" t="n">
+      <c r="AC7" s="1" t="n">
         <v>-11.582</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AD7" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="1" t="n">
         <v>-0.008273062</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="1" t="n">
         <v>0.002046988</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="1" t="n">
         <v>-0.000656611</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="1" t="n">
         <v>-0.004107606</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="1" t="n">
         <v>-0.028675877</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="1" t="n">
         <v>0.305076369</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="N8" s="1" t="n">
         <v>-0.028291631</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="1" t="n">
         <v>0.065905561</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="1" t="n">
         <v>-1.194941614</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="1" t="n">
         <v>0.011608069</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="1" t="n">
         <v>0.412953444</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="1" t="n">
         <v>1.683677649</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="1" t="n">
         <v>1.866062816</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="X8" s="1" t="n">
         <v>1.611530471</v>
       </c>
-      <c r="Y8" s="2" t="n">
+      <c r="Y8" s="1" t="n">
         <v>2.994068894</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="Z8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AB8" s="1" t="n">
         <v>-85.262</v>
       </c>
-      <c r="AC8" s="2" t="n">
+      <c r="AC8" s="1" t="n">
         <v>-12.252</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="1" t="n">
         <v>2.949201663</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="1" t="n">
         <v>12.1266859</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="X9" s="1" t="n">
         <v>1.574413501</v>
       </c>
-      <c r="Y9" s="2" t="n">
+      <c r="Y9" s="1" t="n">
         <v>6.914068453</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB9" s="2" t="n">
+      <c r="AB9" s="1" t="n">
         <v>-89.646</v>
       </c>
-      <c r="AC9" s="2" t="n">
+      <c r="AC9" s="1" t="n">
         <v>-13.065</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AD9" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="1" t="n">
         <v>4.065669151</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="1" t="n">
         <v>1.557410743</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="1" t="n">
         <v>45.91070652</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="X10" s="1" t="n">
         <v>1.547171644</v>
       </c>
-      <c r="Y10" s="2" t="n">
+      <c r="Y10" s="1" t="n">
         <v>16.30907021</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB10" s="2" t="n">
+      <c r="AB10" s="1" t="n">
         <v>-50.801</v>
       </c>
-      <c r="AC10" s="2" t="n">
+      <c r="AC10" s="1" t="n">
         <v>-8.426</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="1" t="n">
         <v>0.153221701</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="1" t="n">
         <v>0.014861713</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="1" t="n">
         <v>-0.000743169</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="1" t="n">
         <v>0.015333167</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="1" t="n">
         <v>0.48408665</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="M11" s="1" t="n">
         <v>0.713193824</v>
       </c>
-      <c r="N11" s="2" t="n">
+      <c r="N11" s="1" t="n">
         <v>-0.017088439</v>
       </c>
-      <c r="O11" s="2" t="n">
+      <c r="O11" s="1" t="n">
         <v>0.27432885</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="1" t="n">
         <v>-1.13668387</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="Q11" s="1" t="n">
         <v>0.479294052</v>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="R11" s="1" t="n">
         <v>0.591529624</v>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="1" t="n">
         <v>0.032667482</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="1" t="n">
         <v>1.875389224</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="1" t="n">
         <v>2.371766064</v>
       </c>
-      <c r="Y11" s="2" t="n">
+      <c r="Y11" s="1" t="n">
         <v>7.659225474</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="Z11" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="1" t="n">
         <v>0.135571269</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="1" t="n">
         <v>-0.012624602</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="1" t="n">
         <v>0.000890065</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="1" t="n">
         <v>-0.006579529</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="1" t="n">
         <v>3.132389271</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="M12" s="1" t="n">
         <v>0.443414038</v>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="N12" s="1" t="n">
         <v>-0.035219578</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="1" t="n">
         <v>0.933349867</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="1" t="n">
         <v>0.260326343</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="Q12" s="1" t="n">
         <v>0.26257316</v>
       </c>
-      <c r="R12" s="2" t="n">
+      <c r="R12" s="1" t="n">
         <v>4.436051514</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="1" t="n">
         <v>-0.022544739</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="1" t="n">
         <v>-0.01448515</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="1" t="n">
         <v>0.000587156</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="1" t="n">
         <v>-0.010980137</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="1" t="n">
         <v>-0.144439162</v>
       </c>
-      <c r="M13" s="2" t="n">
+      <c r="M13" s="1" t="n">
         <v>-0.027036361</v>
       </c>
-      <c r="N13" s="2" t="n">
+      <c r="N13" s="1" t="n">
         <v>-0.052428058</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="1" t="n">
         <v>0.017803848</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="1" t="n">
         <v>-1.30920825</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="Q13" s="1" t="n">
         <v>-0.013028316</v>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="R13" s="1" t="n">
         <v>0.249147493</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="1" t="n">
         <v>0.046401456</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="1" t="n">
         <v>1.65031151</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="1" t="n">
         <v>2.216317094</v>
       </c>
-      <c r="Y13" s="2" t="n">
+      <c r="Y13" s="1" t="n">
         <v>3.514948659</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="Z13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB13" s="2" t="n">
+      <c r="AB13" s="1" t="n">
         <v>-87.824</v>
       </c>
-      <c r="AC13" s="2" t="n">
+      <c r="AC13" s="1" t="n">
         <v>-13.232</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="1" t="n">
         <v>-0.005760092</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="1" t="n">
         <v>0.007980837</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="1" t="n">
         <v>0.002071911</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="1" t="n">
         <v>0.02139118</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="1" t="n">
         <v>1.150758114</v>
       </c>
-      <c r="M14" s="2" t="n">
+      <c r="M14" s="1" t="n">
         <v>0.919783579</v>
       </c>
-      <c r="N14" s="2" t="n">
+      <c r="N14" s="1" t="n">
         <v>-0.011040281</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="1" t="n">
         <v>1.137487804</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="1" t="n">
         <v>2.130392871</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="Q14" s="1" t="n">
         <v>0.009517143</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="R14" s="1" t="n">
         <v>4.337064961</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="1" t="n">
         <v>0.0474</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="1" t="n">
         <v>2.1995</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="1" t="n">
         <v>0.4463</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="1" t="n">
         <v>2.5785</v>
       </c>
-      <c r="Y14" s="2" t="n">
+      <c r="Y14" s="1" t="n">
         <v>1.3314</v>
       </c>
-      <c r="AB14" s="2" t="n">
+      <c r="AB14" s="1" t="n">
         <v>-75.524</v>
       </c>
-      <c r="AC14" s="2" t="n">
+      <c r="AC14" s="1" t="n">
         <v>-11.193</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB15" s="2" t="n">
+      <c r="AB15" s="1" t="n">
         <v>-66.275</v>
       </c>
-      <c r="AC15" s="2" t="n">
+      <c r="AC15" s="1" t="n">
         <v>-9.682</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB16" s="2" t="n">
+      <c r="AB16" s="1" t="n">
         <v>-76.707</v>
       </c>
-      <c r="AC16" s="2" t="n">
+      <c r="AC16" s="1" t="n">
         <v>-11.481</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="1" t="n">
         <v>-0.017935714</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="1" t="n">
         <v>0.045289908</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="1" t="n">
         <v>0.035849962</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="K17" s="1" t="n">
         <v>0.029241819</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="L17" s="1" t="n">
         <v>7.648743775</v>
       </c>
-      <c r="M17" s="2" t="n">
+      <c r="M17" s="1" t="n">
         <v>4.438201407</v>
       </c>
-      <c r="N17" s="2" t="n">
+      <c r="N17" s="1" t="n">
         <v>0.354392502</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="O17" s="1" t="n">
         <v>26.4284451</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="1" t="n">
         <v>21.02279844</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="Q17" s="1" t="n">
         <v>-0.131898869</v>
       </c>
-      <c r="R17" s="2" t="n">
+      <c r="R17" s="1" t="n">
         <v>105.9045741</v>
       </c>
-      <c r="S17" s="2" t="n">
+      <c r="S17" s="1" t="n">
         <v>0.015458651</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="1" t="n">
         <v>60.24839626</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="1" t="n">
         <v>0.857020045</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="1" t="n">
         <v>1.605056166</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="1" t="n">
         <v>3.983550327</v>
       </c>
-      <c r="X17" s="2" t="n">
+      <c r="X17" s="1" t="n">
         <v>1.58724521</v>
       </c>
-      <c r="Y17" s="2" t="n">
+      <c r="Y17" s="1" t="n">
         <v>83.82824622</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="Z17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB17" s="2" t="n">
+      <c r="AB17" s="1" t="n">
         <v>-72.633</v>
       </c>
-      <c r="AC17" s="2" t="n">
+      <c r="AC17" s="1" t="n">
         <v>-10.806</v>
       </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AD17" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="1" t="n">
         <v>-0.006055875</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="1" t="n">
         <v>-0.003026873</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="1" t="n">
         <v>-0.001228727</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="1" t="n">
         <v>-0.005499911</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="1" t="n">
         <v>1.689151505</v>
       </c>
-      <c r="M18" s="2" t="n">
+      <c r="M18" s="1" t="n">
         <v>0.181631256</v>
       </c>
-      <c r="N18" s="2" t="n">
+      <c r="N18" s="1" t="n">
         <v>-0.01777371</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="1" t="n">
         <v>0.831397948</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="1" t="n">
         <v>-0.548253279</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="Q18" s="1" t="n">
         <v>0.015540279</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="R18" s="1" t="n">
         <v>5.788055452</v>
       </c>
-      <c r="AB18" s="2" t="n">
+      <c r="AB18" s="1" t="n">
         <v>-72.071</v>
       </c>
-      <c r="AC18" s="2" t="n">
+      <c r="AC18" s="1" t="n">
         <v>-11.116</v>
       </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AD18" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="1" t="n">
         <v>-0.008999159</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="1" t="n">
         <v>-0.003347686</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="1" t="n">
         <v>-0.000665278</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="1" t="n">
         <v>-0.000761201</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="L19" s="1" t="n">
         <v>1.883644279</v>
       </c>
-      <c r="M19" s="2" t="n">
+      <c r="M19" s="1" t="n">
         <v>0.28598758</v>
       </c>
-      <c r="N19" s="2" t="n">
+      <c r="N19" s="1" t="n">
         <v>-0.019510879</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="1" t="n">
         <v>0.425312813</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="1" t="n">
         <v>-0.282933665</v>
       </c>
-      <c r="Q19" s="2" t="n">
+      <c r="Q19" s="1" t="n">
         <v>0.00428736</v>
       </c>
-      <c r="R19" s="2" t="n">
+      <c r="R19" s="1" t="n">
         <v>6.847131002</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="1" t="n">
         <v>1.752880691</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="1" t="n">
         <v>1.717066079</v>
       </c>
-      <c r="Y19" s="2" t="n">
+      <c r="Y19" s="1" t="n">
         <v>10.92170103</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="Z19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB19" s="2" t="n">
+      <c r="AB19" s="1" t="n">
         <v>-76.119</v>
       </c>
-      <c r="AC19" s="2" t="n">
+      <c r="AC19" s="1" t="n">
         <v>-11.57</v>
       </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AD19" s="1" t="s">
         <v>127</v>
       </c>
     </row>
